--- a/PROTOCOLO NSX-Prime.xlsx
+++ b/PROTOCOLO NSX-Prime.xlsx
@@ -777,7 +777,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,6 +853,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,7 +1070,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1232,15 +1238,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1254,6 +1256,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,23 +1285,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -14838,8 +14845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:MA197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14897,9 +14904,12 @@
       <c r="I3" s="1">
         <v>7</v>
       </c>
+      <c r="J3" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
@@ -14915,7 +14925,7 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="49" t="s">
         <v>3</v>
       </c>
@@ -14948,7 +14958,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -14985,7 +14995,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -15149,7 +15159,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="42" t="s">
         <v>114</v>
       </c>
@@ -15159,7 +15169,7 @@
       <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="60" t="s">
         <v>3</v>
       </c>
@@ -15184,7 +15194,7 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -15215,7 +15225,7 @@
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -15400,7 +15410,7 @@
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="42" t="s">
         <v>188</v>
       </c>
@@ -15409,16 +15419,16 @@
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="77" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77" t="s">
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="77"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="49" t="s">
         <v>4</v>
       </c>
@@ -15431,47 +15441,47 @@
       <c r="J24" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="77" t="s">
+      <c r="K24" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77" t="s">
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="77"/>
-      <c r="AB24" s="77"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
       <c r="AC24" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AD24" s="74" t="s">
+      <c r="AD24" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="75"/>
-      <c r="AH24" s="75"/>
-      <c r="AI24" s="75"/>
-      <c r="AJ24" s="75"/>
-      <c r="AK24" s="76"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="77"/>
+      <c r="AK24" s="78"/>
       <c r="AL24" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="43" t="s">
         <v>7</v>
       </c>
@@ -15539,7 +15549,7 @@
       <c r="AL25" s="3"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
@@ -15912,7 +15922,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="42" t="s">
         <v>105</v>
       </c>
@@ -15922,16 +15932,16 @@
       <c r="AL31" s="66"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="77" t="s">
+      <c r="A32" s="75"/>
+      <c r="B32" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77" t="s">
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F32" s="77"/>
+      <c r="F32" s="79"/>
       <c r="G32" s="49" t="s">
         <v>4</v>
       </c>
@@ -15944,35 +15954,35 @@
       <c r="J32" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="74" t="s">
+      <c r="K32" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="78"/>
       <c r="S32" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U32" s="77" t="s">
+      <c r="U32" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="77"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
       <c r="Z32" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
+      <c r="A33" s="75"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -16026,7 +16036,7 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
@@ -16208,15 +16218,15 @@
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77" t="s">
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="77"/>
+      <c r="F37" s="79"/>
       <c r="G37" s="62" t="s">
         <v>4</v>
       </c>
@@ -16434,15 +16444,15 @@
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77" t="s">
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F44" s="77"/>
+      <c r="F44" s="79"/>
       <c r="G44" s="49" t="s">
         <v>4</v>
       </c>
@@ -16458,42 +16468,42 @@
       <c r="K44" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="74" t="s">
+      <c r="L44" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="75"/>
-      <c r="S44" s="76"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="78"/>
       <c r="T44" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="U44" s="74" t="s">
+      <c r="U44" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="V44" s="75"/>
-      <c r="W44" s="75"/>
-      <c r="X44" s="75"/>
-      <c r="Y44" s="75"/>
-      <c r="Z44" s="75"/>
-      <c r="AA44" s="75"/>
-      <c r="AB44" s="76"/>
-      <c r="AC44" s="74" t="s">
+      <c r="V44" s="77"/>
+      <c r="W44" s="77"/>
+      <c r="X44" s="77"/>
+      <c r="Y44" s="77"/>
+      <c r="Z44" s="77"/>
+      <c r="AA44" s="77"/>
+      <c r="AB44" s="78"/>
+      <c r="AC44" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="AD44" s="75"/>
-      <c r="AE44" s="75"/>
-      <c r="AF44" s="75"/>
-      <c r="AG44" s="75"/>
-      <c r="AH44" s="75"/>
-      <c r="AI44" s="75"/>
-      <c r="AJ44" s="75"/>
-      <c r="AK44" s="75"/>
-      <c r="AL44" s="75"/>
-      <c r="AM44" s="76"/>
+      <c r="AD44" s="77"/>
+      <c r="AE44" s="77"/>
+      <c r="AF44" s="77"/>
+      <c r="AG44" s="77"/>
+      <c r="AH44" s="77"/>
+      <c r="AI44" s="77"/>
+      <c r="AJ44" s="77"/>
+      <c r="AK44" s="77"/>
+      <c r="AL44" s="77"/>
+      <c r="AM44" s="78"/>
       <c r="AN44" s="49" t="s">
         <v>6</v>
       </c>
@@ -16977,15 +16987,15 @@
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B52" s="77" t="s">
+      <c r="B52" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77" t="s">
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="77"/>
+      <c r="F52" s="79"/>
       <c r="G52" s="49" t="s">
         <v>4</v>
       </c>
@@ -16998,33 +17008,33 @@
       <c r="J52" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K52" s="77" t="s">
+      <c r="K52" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77" t="s">
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="79"/>
+      <c r="O52" s="79"/>
+      <c r="P52" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="Q52" s="77"/>
-      <c r="R52" s="77"/>
-      <c r="S52" s="77"/>
-      <c r="T52" s="77"/>
-      <c r="U52" s="77"/>
-      <c r="V52" s="77"/>
-      <c r="W52" s="77"/>
-      <c r="X52" s="77" t="s">
+      <c r="Q52" s="79"/>
+      <c r="R52" s="79"/>
+      <c r="S52" s="79"/>
+      <c r="T52" s="79"/>
+      <c r="U52" s="79"/>
+      <c r="V52" s="79"/>
+      <c r="W52" s="79"/>
+      <c r="X52" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="Y52" s="77"/>
-      <c r="Z52" s="77"/>
-      <c r="AA52" s="77"/>
-      <c r="AB52" s="77"/>
-      <c r="AC52" s="77"/>
-      <c r="AD52" s="77"/>
-      <c r="AE52" s="77"/>
+      <c r="Y52" s="79"/>
+      <c r="Z52" s="79"/>
+      <c r="AA52" s="79"/>
+      <c r="AB52" s="79"/>
+      <c r="AC52" s="79"/>
+      <c r="AD52" s="79"/>
+      <c r="AE52" s="79"/>
       <c r="AF52" s="49" t="s">
         <v>6</v>
       </c>
@@ -17337,7 +17347,7 @@
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A58" s="89"/>
+      <c r="A58" s="75"/>
       <c r="B58" s="42" t="s">
         <v>106</v>
       </c>
@@ -17346,16 +17356,16 @@
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A59" s="89"/>
-      <c r="B59" s="77" t="s">
+      <c r="A59" s="75"/>
+      <c r="B59" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77" t="s">
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F59" s="77"/>
+      <c r="F59" s="79"/>
       <c r="G59" s="49" t="s">
         <v>4</v>
       </c>
@@ -17367,7 +17377,7 @@
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A60" s="89"/>
+      <c r="A60" s="75"/>
       <c r="B60" s="3" t="s">
         <v>7</v>
       </c>
@@ -17392,7 +17402,7 @@
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" s="89"/>
+      <c r="A61" s="75"/>
       <c r="B61" s="3" t="s">
         <v>14</v>
       </c>
@@ -17537,15 +17547,15 @@
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B65" s="77" t="s">
+      <c r="B65" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77" t="s">
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="77"/>
+      <c r="F65" s="79"/>
       <c r="G65" s="49" t="s">
         <v>4</v>
       </c>
@@ -17561,34 +17571,34 @@
       <c r="K65" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L65" s="77" t="s">
+      <c r="L65" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="M65" s="77"/>
-      <c r="N65" s="77"/>
-      <c r="O65" s="77"/>
-      <c r="P65" s="77"/>
-      <c r="Q65" s="77"/>
-      <c r="R65" s="77"/>
-      <c r="S65" s="77"/>
-      <c r="T65" s="77"/>
-      <c r="U65" s="77"/>
-      <c r="V65" s="77"/>
-      <c r="W65" s="77"/>
-      <c r="X65" s="77" t="s">
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="79"/>
+      <c r="P65" s="79"/>
+      <c r="Q65" s="79"/>
+      <c r="R65" s="79"/>
+      <c r="S65" s="79"/>
+      <c r="T65" s="79"/>
+      <c r="U65" s="79"/>
+      <c r="V65" s="79"/>
+      <c r="W65" s="79"/>
+      <c r="X65" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="Y65" s="77"/>
-      <c r="Z65" s="77"/>
-      <c r="AA65" s="77"/>
-      <c r="AB65" s="77"/>
-      <c r="AC65" s="77"/>
-      <c r="AD65" s="77"/>
-      <c r="AE65" s="77"/>
-      <c r="AF65" s="77"/>
-      <c r="AG65" s="77"/>
-      <c r="AH65" s="77"/>
-      <c r="AI65" s="77"/>
+      <c r="Y65" s="79"/>
+      <c r="Z65" s="79"/>
+      <c r="AA65" s="79"/>
+      <c r="AB65" s="79"/>
+      <c r="AC65" s="79"/>
+      <c r="AD65" s="79"/>
+      <c r="AE65" s="79"/>
+      <c r="AF65" s="79"/>
+      <c r="AG65" s="79"/>
+      <c r="AH65" s="79"/>
+      <c r="AI65" s="79"/>
       <c r="AJ65" s="49" t="s">
         <v>6</v>
       </c>
@@ -17869,52 +17879,44 @@
       <c r="J69" s="1">
         <v>8</v>
       </c>
-      <c r="L69">
+      <c r="K69" s="1">
+        <v>9</v>
+      </c>
+      <c r="L69" s="1">
+        <v>10</v>
+      </c>
+      <c r="M69" s="1">
+        <v>11</v>
+      </c>
+      <c r="N69" s="1">
+        <v>12</v>
+      </c>
+      <c r="O69" s="1">
+        <v>13</v>
+      </c>
+      <c r="P69" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q69" s="66"/>
+      <c r="S69">
+        <f t="shared" ref="N69:AI69" si="4">R69+1</f>
         <v>1</v>
       </c>
-      <c r="M69">
-        <f>L69+1</f>
+      <c r="T69">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N69">
-        <f t="shared" ref="N69:AI69" si="4">M69+1</f>
+      <c r="U69">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O69">
+      <c r="V69">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P69">
+      <c r="W69">
         <f t="shared" si="4"/>
         <v>5</v>
-      </c>
-      <c r="Q69">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="R69">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="S69">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="T69">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="U69">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V69">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="W69">
-        <f t="shared" si="4"/>
-        <v>12</v>
       </c>
       <c r="X69">
         <v>1</v>
@@ -17965,37 +17967,13 @@
       </c>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A70" s="89"/>
+      <c r="A70" s="75"/>
       <c r="B70" s="42" t="s">
         <v>108</v>
       </c>
       <c r="C70" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>2</v>
-      </c>
-      <c r="M70">
-        <v>3</v>
-      </c>
-      <c r="N70">
-        <v>4</v>
-      </c>
-      <c r="O70">
-        <v>5</v>
-      </c>
-      <c r="P70">
-        <v>6</v>
-      </c>
-      <c r="Q70">
-        <v>7</v>
-      </c>
-      <c r="R70">
-        <v>8</v>
-      </c>
       <c r="S70">
         <v>9</v>
       </c>
@@ -18049,16 +18027,16 @@
       </c>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A71" s="89"/>
-      <c r="B71" s="77" t="s">
+      <c r="A71" s="75"/>
+      <c r="B71" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77" t="s">
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F71" s="77"/>
+      <c r="F71" s="79"/>
       <c r="G71" s="49" t="s">
         <v>4</v>
       </c>
@@ -18071,19 +18049,19 @@
       <c r="J71" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="74" t="s">
+      <c r="K71" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="76"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="77"/>
+      <c r="N71" s="77"/>
+      <c r="O71" s="78"/>
       <c r="P71" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A72" s="89"/>
+      <c r="A72" s="75"/>
       <c r="B72" s="3" t="s">
         <v>7</v>
       </c>
@@ -18121,7 +18099,7 @@
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A73" s="89"/>
+      <c r="A73" s="75"/>
       <c r="B73" s="3" t="s">
         <v>14</v>
       </c>
@@ -18215,7 +18193,7 @@
       </c>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A76" s="85"/>
+      <c r="A76" s="71"/>
       <c r="B76" s="42" t="s">
         <v>109</v>
       </c>
@@ -18224,16 +18202,16 @@
       </c>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A77" s="85"/>
-      <c r="B77" s="77" t="s">
+      <c r="A77" s="71"/>
+      <c r="B77" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="77" t="s">
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="77"/>
+      <c r="F77" s="79"/>
       <c r="G77" s="49" t="s">
         <v>4</v>
       </c>
@@ -18248,7 +18226,7 @@
       </c>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A78" s="85"/>
+      <c r="A78" s="71"/>
       <c r="B78" s="3" t="s">
         <v>7</v>
       </c>
@@ -18276,7 +18254,7 @@
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A79" s="85"/>
+      <c r="A79" s="71"/>
       <c r="B79" s="3" t="s">
         <v>14</v>
       </c>
@@ -18306,7 +18284,7 @@
       </c>
     </row>
     <row r="82" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A82" s="86"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="42" t="s">
         <v>56</v>
       </c>
@@ -18318,16 +18296,16 @@
       </c>
     </row>
     <row r="83" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A83" s="86"/>
-      <c r="B83" s="77" t="s">
+      <c r="A83" s="72"/>
+      <c r="B83" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="77"/>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77" t="s">
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F83" s="77"/>
+      <c r="F83" s="79"/>
       <c r="G83" s="49" t="s">
         <v>4</v>
       </c>
@@ -18340,38 +18318,38 @@
       <c r="J83" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="K83" s="74" t="s">
+      <c r="K83" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="L83" s="75"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
-      <c r="P83" s="75"/>
-      <c r="Q83" s="75"/>
-      <c r="R83" s="75"/>
-      <c r="S83" s="75"/>
-      <c r="T83" s="75"/>
-      <c r="U83" s="75"/>
-      <c r="V83" s="75"/>
-      <c r="W83" s="75"/>
-      <c r="X83" s="75"/>
-      <c r="Y83" s="75"/>
-      <c r="Z83" s="75"/>
-      <c r="AA83" s="75"/>
-      <c r="AB83" s="75"/>
-      <c r="AC83" s="75"/>
-      <c r="AD83" s="75"/>
-      <c r="AE83" s="75"/>
-      <c r="AF83" s="75"/>
-      <c r="AG83" s="75"/>
-      <c r="AH83" s="75"/>
-      <c r="AI83" s="75"/>
-      <c r="AJ83" s="75"/>
-      <c r="AK83" s="75"/>
-      <c r="AL83" s="75"/>
-      <c r="AM83" s="75"/>
-      <c r="AN83" s="76"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="77"/>
+      <c r="N83" s="77"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="77"/>
+      <c r="Q83" s="77"/>
+      <c r="R83" s="77"/>
+      <c r="S83" s="77"/>
+      <c r="T83" s="77"/>
+      <c r="U83" s="77"/>
+      <c r="V83" s="77"/>
+      <c r="W83" s="77"/>
+      <c r="X83" s="77"/>
+      <c r="Y83" s="77"/>
+      <c r="Z83" s="77"/>
+      <c r="AA83" s="77"/>
+      <c r="AB83" s="77"/>
+      <c r="AC83" s="77"/>
+      <c r="AD83" s="77"/>
+      <c r="AE83" s="77"/>
+      <c r="AF83" s="77"/>
+      <c r="AG83" s="77"/>
+      <c r="AH83" s="77"/>
+      <c r="AI83" s="77"/>
+      <c r="AJ83" s="77"/>
+      <c r="AK83" s="77"/>
+      <c r="AL83" s="77"/>
+      <c r="AM83" s="77"/>
+      <c r="AN83" s="78"/>
       <c r="AO83" s="49" t="s">
         <v>6</v>
       </c>
@@ -18414,7 +18392,7 @@
       <c r="BZ83" s="11"/>
     </row>
     <row r="84" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A84" s="86"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="3" t="s">
         <v>7</v>
       </c>
@@ -18510,7 +18488,7 @@
       <c r="BZ84" s="11"/>
     </row>
     <row r="85" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A85" s="86"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="3" t="s">
         <v>14</v>
       </c>
@@ -18670,7 +18648,7 @@
       <c r="BZ85" s="11"/>
     </row>
     <row r="86" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A86" s="86"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="13">
         <v>0</v>
       </c>
@@ -18828,15 +18806,15 @@
       </c>
     </row>
     <row r="88" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="B88" s="77" t="s">
+      <c r="B88" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77" t="s">
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F88" s="77"/>
+      <c r="F88" s="79"/>
       <c r="G88" s="61" t="s">
         <v>4</v>
       </c>
@@ -19388,7 +19366,7 @@
       </c>
     </row>
     <row r="94" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A94" s="85"/>
+      <c r="A94" s="71"/>
       <c r="B94" s="42" t="s">
         <v>58</v>
       </c>
@@ -19397,16 +19375,16 @@
       </c>
     </row>
     <row r="95" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A95" s="85"/>
-      <c r="B95" s="77" t="s">
+      <c r="A95" s="71"/>
+      <c r="B95" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="83" t="s">
+      <c r="C95" s="79"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="F95" s="83"/>
+      <c r="F95" s="86"/>
       <c r="G95" s="51" t="s">
         <v>4</v>
       </c>
@@ -19416,84 +19394,84 @@
       <c r="I95" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J95" s="78" t="s">
+      <c r="J95" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="K95" s="79"/>
-      <c r="L95" s="79"/>
-      <c r="M95" s="79"/>
-      <c r="N95" s="79"/>
-      <c r="O95" s="79"/>
-      <c r="P95" s="79"/>
-      <c r="Q95" s="79"/>
-      <c r="R95" s="79"/>
-      <c r="S95" s="80"/>
-      <c r="T95" s="78" t="s">
+      <c r="K95" s="88"/>
+      <c r="L95" s="88"/>
+      <c r="M95" s="88"/>
+      <c r="N95" s="88"/>
+      <c r="O95" s="88"/>
+      <c r="P95" s="88"/>
+      <c r="Q95" s="88"/>
+      <c r="R95" s="88"/>
+      <c r="S95" s="89"/>
+      <c r="T95" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="U95" s="79"/>
-      <c r="V95" s="79"/>
-      <c r="W95" s="79"/>
-      <c r="X95" s="79"/>
-      <c r="Y95" s="79"/>
-      <c r="Z95" s="79"/>
-      <c r="AA95" s="80"/>
-      <c r="AB95" s="78" t="s">
+      <c r="U95" s="88"/>
+      <c r="V95" s="88"/>
+      <c r="W95" s="88"/>
+      <c r="X95" s="88"/>
+      <c r="Y95" s="88"/>
+      <c r="Z95" s="88"/>
+      <c r="AA95" s="89"/>
+      <c r="AB95" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="AC95" s="79"/>
-      <c r="AD95" s="79"/>
-      <c r="AE95" s="79"/>
-      <c r="AF95" s="79"/>
-      <c r="AG95" s="79"/>
-      <c r="AH95" s="79"/>
-      <c r="AI95" s="79"/>
-      <c r="AJ95" s="79"/>
-      <c r="AK95" s="80"/>
-      <c r="AL95" s="78" t="s">
+      <c r="AC95" s="88"/>
+      <c r="AD95" s="88"/>
+      <c r="AE95" s="88"/>
+      <c r="AF95" s="88"/>
+      <c r="AG95" s="88"/>
+      <c r="AH95" s="88"/>
+      <c r="AI95" s="88"/>
+      <c r="AJ95" s="88"/>
+      <c r="AK95" s="89"/>
+      <c r="AL95" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="AM95" s="79"/>
-      <c r="AN95" s="79"/>
-      <c r="AO95" s="79"/>
-      <c r="AP95" s="79"/>
-      <c r="AQ95" s="79"/>
-      <c r="AR95" s="79"/>
-      <c r="AS95" s="79"/>
-      <c r="AT95" s="79"/>
-      <c r="AU95" s="79"/>
-      <c r="AV95" s="79"/>
-      <c r="AW95" s="79"/>
-      <c r="AX95" s="79"/>
-      <c r="AY95" s="79"/>
-      <c r="AZ95" s="79"/>
-      <c r="BA95" s="79"/>
-      <c r="BB95" s="79"/>
-      <c r="BC95" s="79"/>
-      <c r="BD95" s="79"/>
-      <c r="BE95" s="80"/>
-      <c r="BF95" s="78" t="s">
+      <c r="AM95" s="88"/>
+      <c r="AN95" s="88"/>
+      <c r="AO95" s="88"/>
+      <c r="AP95" s="88"/>
+      <c r="AQ95" s="88"/>
+      <c r="AR95" s="88"/>
+      <c r="AS95" s="88"/>
+      <c r="AT95" s="88"/>
+      <c r="AU95" s="88"/>
+      <c r="AV95" s="88"/>
+      <c r="AW95" s="88"/>
+      <c r="AX95" s="88"/>
+      <c r="AY95" s="88"/>
+      <c r="AZ95" s="88"/>
+      <c r="BA95" s="88"/>
+      <c r="BB95" s="88"/>
+      <c r="BC95" s="88"/>
+      <c r="BD95" s="88"/>
+      <c r="BE95" s="89"/>
+      <c r="BF95" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="BG95" s="79"/>
-      <c r="BH95" s="79"/>
-      <c r="BI95" s="79"/>
-      <c r="BJ95" s="79"/>
-      <c r="BK95" s="79"/>
-      <c r="BL95" s="79"/>
-      <c r="BM95" s="79"/>
-      <c r="BN95" s="79"/>
-      <c r="BO95" s="79"/>
-      <c r="BP95" s="79"/>
-      <c r="BQ95" s="79"/>
-      <c r="BR95" s="79"/>
-      <c r="BS95" s="79"/>
-      <c r="BT95" s="79"/>
-      <c r="BU95" s="79"/>
-      <c r="BV95" s="79"/>
-      <c r="BW95" s="79"/>
-      <c r="BX95" s="79"/>
-      <c r="BY95" s="80"/>
+      <c r="BG95" s="88"/>
+      <c r="BH95" s="88"/>
+      <c r="BI95" s="88"/>
+      <c r="BJ95" s="88"/>
+      <c r="BK95" s="88"/>
+      <c r="BL95" s="88"/>
+      <c r="BM95" s="88"/>
+      <c r="BN95" s="88"/>
+      <c r="BO95" s="88"/>
+      <c r="BP95" s="88"/>
+      <c r="BQ95" s="88"/>
+      <c r="BR95" s="88"/>
+      <c r="BS95" s="88"/>
+      <c r="BT95" s="88"/>
+      <c r="BU95" s="88"/>
+      <c r="BV95" s="88"/>
+      <c r="BW95" s="88"/>
+      <c r="BX95" s="88"/>
+      <c r="BY95" s="89"/>
       <c r="BZ95" s="51" t="s">
         <v>61</v>
       </c>
@@ -19503,51 +19481,51 @@
       <c r="CB95" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="CC95" s="78" t="s">
+      <c r="CC95" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="CD95" s="79"/>
-      <c r="CE95" s="79"/>
-      <c r="CF95" s="79"/>
-      <c r="CG95" s="79"/>
-      <c r="CH95" s="79"/>
-      <c r="CI95" s="80"/>
-      <c r="CJ95" s="78" t="s">
+      <c r="CD95" s="88"/>
+      <c r="CE95" s="88"/>
+      <c r="CF95" s="88"/>
+      <c r="CG95" s="88"/>
+      <c r="CH95" s="88"/>
+      <c r="CI95" s="89"/>
+      <c r="CJ95" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="CK95" s="79"/>
-      <c r="CL95" s="79"/>
-      <c r="CM95" s="79"/>
-      <c r="CN95" s="79"/>
-      <c r="CO95" s="79"/>
-      <c r="CP95" s="80"/>
-      <c r="CQ95" s="78" t="s">
+      <c r="CK95" s="88"/>
+      <c r="CL95" s="88"/>
+      <c r="CM95" s="88"/>
+      <c r="CN95" s="88"/>
+      <c r="CO95" s="88"/>
+      <c r="CP95" s="89"/>
+      <c r="CQ95" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="CR95" s="79"/>
-      <c r="CS95" s="79"/>
-      <c r="CT95" s="79"/>
-      <c r="CU95" s="79"/>
-      <c r="CV95" s="79"/>
-      <c r="CW95" s="80"/>
-      <c r="CX95" s="78" t="s">
+      <c r="CR95" s="88"/>
+      <c r="CS95" s="88"/>
+      <c r="CT95" s="88"/>
+      <c r="CU95" s="88"/>
+      <c r="CV95" s="88"/>
+      <c r="CW95" s="89"/>
+      <c r="CX95" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="CY95" s="79"/>
-      <c r="CZ95" s="79"/>
-      <c r="DA95" s="79"/>
-      <c r="DB95" s="79"/>
-      <c r="DC95" s="79"/>
-      <c r="DD95" s="79"/>
-      <c r="DE95" s="79"/>
-      <c r="DF95" s="79"/>
-      <c r="DG95" s="79"/>
-      <c r="DH95" s="79"/>
-      <c r="DI95" s="79"/>
-      <c r="DJ95" s="79"/>
-      <c r="DK95" s="79"/>
-      <c r="DL95" s="79"/>
-      <c r="DM95" s="80"/>
+      <c r="CY95" s="88"/>
+      <c r="CZ95" s="88"/>
+      <c r="DA95" s="88"/>
+      <c r="DB95" s="88"/>
+      <c r="DC95" s="88"/>
+      <c r="DD95" s="88"/>
+      <c r="DE95" s="88"/>
+      <c r="DF95" s="88"/>
+      <c r="DG95" s="88"/>
+      <c r="DH95" s="88"/>
+      <c r="DI95" s="88"/>
+      <c r="DJ95" s="88"/>
+      <c r="DK95" s="88"/>
+      <c r="DL95" s="88"/>
+      <c r="DM95" s="89"/>
       <c r="DN95" s="52" t="s">
         <v>185</v>
       </c>
@@ -19556,7 +19534,7 @@
       </c>
     </row>
     <row r="96" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A96" s="85"/>
+      <c r="A96" s="71"/>
       <c r="B96" s="3" t="s">
         <v>7</v>
       </c>
@@ -19717,7 +19695,7 @@
       <c r="DO96" s="15"/>
     </row>
     <row r="97" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A97" s="85"/>
+      <c r="A97" s="71"/>
       <c r="B97" s="3" t="s">
         <v>14</v>
       </c>
@@ -20822,18 +20800,18 @@
       <c r="I103" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J103" s="78" t="s">
+      <c r="J103" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="K103" s="79"/>
-      <c r="L103" s="79"/>
-      <c r="M103" s="79"/>
-      <c r="N103" s="79"/>
-      <c r="O103" s="79"/>
-      <c r="P103" s="79"/>
-      <c r="Q103" s="79"/>
-      <c r="R103" s="79"/>
-      <c r="S103" s="80"/>
+      <c r="K103" s="88"/>
+      <c r="L103" s="88"/>
+      <c r="M103" s="88"/>
+      <c r="N103" s="88"/>
+      <c r="O103" s="88"/>
+      <c r="P103" s="88"/>
+      <c r="Q103" s="88"/>
+      <c r="R103" s="88"/>
+      <c r="S103" s="89"/>
       <c r="T103" s="49" t="s">
         <v>6</v>
       </c>
@@ -20967,7 +20945,7 @@
       </c>
     </row>
     <row r="107" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A107" s="89"/>
+      <c r="A107" s="75"/>
       <c r="B107" s="42" t="s">
         <v>198</v>
       </c>
@@ -20977,16 +20955,16 @@
       <c r="K107" s="56"/>
     </row>
     <row r="108" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A108" s="89"/>
-      <c r="B108" s="77" t="s">
+      <c r="A108" s="75"/>
+      <c r="B108" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77" t="s">
+      <c r="C108" s="79"/>
+      <c r="D108" s="79"/>
+      <c r="E108" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="77"/>
+      <c r="F108" s="79"/>
       <c r="G108" s="57" t="s">
         <v>4</v>
       </c>
@@ -20999,7 +20977,7 @@
       <c r="K108" s="56"/>
     </row>
     <row r="109" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A109" s="89"/>
+      <c r="A109" s="75"/>
       <c r="B109" s="3" t="s">
         <v>7</v>
       </c>
@@ -21025,7 +21003,7 @@
       <c r="K109" s="56"/>
     </row>
     <row r="110" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A110" s="89"/>
+      <c r="A110" s="75"/>
       <c r="B110" s="3" t="s">
         <v>14</v>
       </c>
@@ -21301,15 +21279,15 @@
       <c r="K113" s="56"/>
     </row>
     <row r="114" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="B114" s="77" t="s">
+      <c r="B114" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="77"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77" t="s">
+      <c r="C114" s="79"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F114" s="77"/>
+      <c r="F114" s="79"/>
       <c r="G114" s="57" t="s">
         <v>4</v>
       </c>
@@ -21319,95 +21297,95 @@
       <c r="I114" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J114" s="81" t="s">
+      <c r="J114" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="K114" s="84"/>
+      <c r="K114" s="81"/>
       <c r="L114" s="82"/>
-      <c r="M114" s="81" t="s">
+      <c r="M114" s="80" t="s">
         <v>75</v>
       </c>
       <c r="N114" s="82"/>
       <c r="O114" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P114" s="77" t="s">
+      <c r="P114" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="Q114" s="77"/>
-      <c r="R114" s="77"/>
-      <c r="S114" s="77"/>
-      <c r="T114" s="77"/>
-      <c r="U114" s="77"/>
-      <c r="V114" s="77"/>
-      <c r="W114" s="77"/>
-      <c r="X114" s="77" t="s">
+      <c r="Q114" s="79"/>
+      <c r="R114" s="79"/>
+      <c r="S114" s="79"/>
+      <c r="T114" s="79"/>
+      <c r="U114" s="79"/>
+      <c r="V114" s="79"/>
+      <c r="W114" s="79"/>
+      <c r="X114" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="Y114" s="77"/>
-      <c r="Z114" s="77"/>
-      <c r="AA114" s="77"/>
-      <c r="AB114" s="77"/>
-      <c r="AC114" s="77"/>
-      <c r="AD114" s="77"/>
-      <c r="AE114" s="77"/>
-      <c r="AF114" s="77"/>
-      <c r="AG114" s="77"/>
-      <c r="AH114" s="77" t="s">
+      <c r="Y114" s="79"/>
+      <c r="Z114" s="79"/>
+      <c r="AA114" s="79"/>
+      <c r="AB114" s="79"/>
+      <c r="AC114" s="79"/>
+      <c r="AD114" s="79"/>
+      <c r="AE114" s="79"/>
+      <c r="AF114" s="79"/>
+      <c r="AG114" s="79"/>
+      <c r="AH114" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="AI114" s="77"/>
-      <c r="AJ114" s="77"/>
-      <c r="AK114" s="77"/>
-      <c r="AL114" s="77"/>
-      <c r="AM114" s="77" t="s">
+      <c r="AI114" s="79"/>
+      <c r="AJ114" s="79"/>
+      <c r="AK114" s="79"/>
+      <c r="AL114" s="79"/>
+      <c r="AM114" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="AN114" s="77"/>
-      <c r="AO114" s="77"/>
-      <c r="AP114" s="77"/>
-      <c r="AQ114" s="77"/>
-      <c r="AR114" s="77"/>
-      <c r="AS114" s="77"/>
-      <c r="AT114" s="77"/>
-      <c r="AU114" s="77" t="s">
+      <c r="AN114" s="79"/>
+      <c r="AO114" s="79"/>
+      <c r="AP114" s="79"/>
+      <c r="AQ114" s="79"/>
+      <c r="AR114" s="79"/>
+      <c r="AS114" s="79"/>
+      <c r="AT114" s="79"/>
+      <c r="AU114" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="AV114" s="77"/>
-      <c r="AW114" s="77"/>
-      <c r="AX114" s="77"/>
-      <c r="AY114" s="77"/>
-      <c r="AZ114" s="77"/>
-      <c r="BA114" s="77"/>
-      <c r="BB114" s="77"/>
-      <c r="BC114" s="77" t="s">
+      <c r="AV114" s="79"/>
+      <c r="AW114" s="79"/>
+      <c r="AX114" s="79"/>
+      <c r="AY114" s="79"/>
+      <c r="AZ114" s="79"/>
+      <c r="BA114" s="79"/>
+      <c r="BB114" s="79"/>
+      <c r="BC114" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="BD114" s="77"/>
-      <c r="BE114" s="77"/>
-      <c r="BF114" s="77"/>
-      <c r="BG114" s="77"/>
-      <c r="BH114" s="77"/>
-      <c r="BI114" s="77"/>
-      <c r="BJ114" s="77"/>
-      <c r="BK114" s="77"/>
-      <c r="BL114" s="77"/>
-      <c r="BM114" s="77"/>
-      <c r="BN114" s="77"/>
-      <c r="BO114" s="77" t="s">
+      <c r="BD114" s="79"/>
+      <c r="BE114" s="79"/>
+      <c r="BF114" s="79"/>
+      <c r="BG114" s="79"/>
+      <c r="BH114" s="79"/>
+      <c r="BI114" s="79"/>
+      <c r="BJ114" s="79"/>
+      <c r="BK114" s="79"/>
+      <c r="BL114" s="79"/>
+      <c r="BM114" s="79"/>
+      <c r="BN114" s="79"/>
+      <c r="BO114" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="BP114" s="77"/>
-      <c r="BQ114" s="77"/>
-      <c r="BR114" s="77"/>
-      <c r="BS114" s="77"/>
-      <c r="BT114" s="77"/>
-      <c r="BU114" s="77"/>
-      <c r="BV114" s="77"/>
-      <c r="BW114" s="77"/>
-      <c r="BX114" s="77"/>
-      <c r="BY114" s="77"/>
-      <c r="BZ114" s="77"/>
+      <c r="BP114" s="79"/>
+      <c r="BQ114" s="79"/>
+      <c r="BR114" s="79"/>
+      <c r="BS114" s="79"/>
+      <c r="BT114" s="79"/>
+      <c r="BU114" s="79"/>
+      <c r="BV114" s="79"/>
+      <c r="BW114" s="79"/>
+      <c r="BX114" s="79"/>
+      <c r="BY114" s="79"/>
+      <c r="BZ114" s="79"/>
       <c r="CA114" s="57" t="s">
         <v>6</v>
       </c>
@@ -22240,7 +22218,7 @@
       </c>
     </row>
     <row r="119" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A119" s="89"/>
+      <c r="A119" s="75"/>
       <c r="B119" s="42" t="s">
         <v>202</v>
       </c>
@@ -22250,16 +22228,16 @@
       <c r="K119" s="56"/>
     </row>
     <row r="120" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A120" s="89"/>
-      <c r="B120" s="77" t="s">
+      <c r="A120" s="75"/>
+      <c r="B120" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="77"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="77" t="s">
+      <c r="C120" s="79"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F120" s="77"/>
+      <c r="F120" s="79"/>
       <c r="G120" s="57" t="s">
         <v>4</v>
       </c>
@@ -22272,7 +22250,7 @@
       <c r="K120" s="56"/>
     </row>
     <row r="121" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A121" s="89"/>
+      <c r="A121" s="75"/>
       <c r="B121" s="3" t="s">
         <v>7</v>
       </c>
@@ -22298,7 +22276,7 @@
       <c r="K121" s="56"/>
     </row>
     <row r="122" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A122" s="89"/>
+      <c r="A122" s="75"/>
       <c r="B122" s="3" t="s">
         <v>14</v>
       </c>
@@ -22448,15 +22426,15 @@
       <c r="K125" s="56"/>
     </row>
     <row r="126" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="B126" s="77" t="s">
+      <c r="B126" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C126" s="77"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="77" t="s">
+      <c r="C126" s="79"/>
+      <c r="D126" s="79"/>
+      <c r="E126" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F126" s="77"/>
+      <c r="F126" s="79"/>
       <c r="G126" s="57" t="s">
         <v>4</v>
       </c>
@@ -22466,45 +22444,45 @@
       <c r="I126" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J126" s="81" t="s">
+      <c r="J126" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="K126" s="84"/>
+      <c r="K126" s="81"/>
       <c r="L126" s="82"/>
-      <c r="M126" s="81" t="s">
+      <c r="M126" s="80" t="s">
         <v>75</v>
       </c>
       <c r="N126" s="82"/>
       <c r="O126" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P126" s="77" t="s">
+      <c r="P126" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="Q126" s="77"/>
-      <c r="R126" s="77"/>
-      <c r="S126" s="77"/>
-      <c r="T126" s="77"/>
-      <c r="U126" s="77" t="s">
+      <c r="Q126" s="79"/>
+      <c r="R126" s="79"/>
+      <c r="S126" s="79"/>
+      <c r="T126" s="79"/>
+      <c r="U126" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="V126" s="77"/>
-      <c r="W126" s="77"/>
-      <c r="X126" s="77"/>
-      <c r="Y126" s="77"/>
-      <c r="Z126" s="77"/>
-      <c r="AA126" s="77"/>
-      <c r="AB126" s="77"/>
-      <c r="AC126" s="77" t="s">
+      <c r="V126" s="79"/>
+      <c r="W126" s="79"/>
+      <c r="X126" s="79"/>
+      <c r="Y126" s="79"/>
+      <c r="Z126" s="79"/>
+      <c r="AA126" s="79"/>
+      <c r="AB126" s="79"/>
+      <c r="AC126" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="AD126" s="77"/>
-      <c r="AE126" s="77"/>
-      <c r="AF126" s="77"/>
-      <c r="AG126" s="77"/>
-      <c r="AH126" s="77"/>
-      <c r="AI126" s="77"/>
-      <c r="AJ126" s="77"/>
+      <c r="AD126" s="79"/>
+      <c r="AE126" s="79"/>
+      <c r="AF126" s="79"/>
+      <c r="AG126" s="79"/>
+      <c r="AH126" s="79"/>
+      <c r="AI126" s="79"/>
+      <c r="AJ126" s="79"/>
       <c r="AK126" s="57" t="s">
         <v>6</v>
       </c>
@@ -23979,15 +23957,15 @@
       </c>
     </row>
     <row r="140" spans="2:339" s="22" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="71" t="s">
+      <c r="B140" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C140" s="72"/>
-      <c r="D140" s="73"/>
-      <c r="E140" s="71" t="s">
+      <c r="C140" s="84"/>
+      <c r="D140" s="85"/>
+      <c r="E140" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F140" s="73"/>
+      <c r="F140" s="85"/>
       <c r="G140" s="20" t="s">
         <v>5</v>
       </c>
@@ -24013,352 +23991,352 @@
       <c r="Q140" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="R140" s="71" t="s">
+      <c r="R140" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="S140" s="72"/>
-      <c r="T140" s="72"/>
-      <c r="U140" s="72"/>
-      <c r="V140" s="72"/>
-      <c r="W140" s="72"/>
-      <c r="X140" s="72"/>
-      <c r="Y140" s="72"/>
-      <c r="Z140" s="72"/>
-      <c r="AA140" s="72"/>
-      <c r="AB140" s="72"/>
-      <c r="AC140" s="72"/>
-      <c r="AD140" s="72"/>
-      <c r="AE140" s="72"/>
-      <c r="AF140" s="72"/>
-      <c r="AG140" s="72"/>
-      <c r="AH140" s="72"/>
-      <c r="AI140" s="72"/>
-      <c r="AJ140" s="72"/>
-      <c r="AK140" s="72"/>
-      <c r="AL140" s="72"/>
-      <c r="AM140" s="72"/>
-      <c r="AN140" s="72"/>
-      <c r="AO140" s="72"/>
-      <c r="AP140" s="72"/>
-      <c r="AQ140" s="72"/>
-      <c r="AR140" s="72"/>
-      <c r="AS140" s="72"/>
-      <c r="AT140" s="72"/>
-      <c r="AU140" s="73"/>
-      <c r="AV140" s="71" t="s">
+      <c r="S140" s="84"/>
+      <c r="T140" s="84"/>
+      <c r="U140" s="84"/>
+      <c r="V140" s="84"/>
+      <c r="W140" s="84"/>
+      <c r="X140" s="84"/>
+      <c r="Y140" s="84"/>
+      <c r="Z140" s="84"/>
+      <c r="AA140" s="84"/>
+      <c r="AB140" s="84"/>
+      <c r="AC140" s="84"/>
+      <c r="AD140" s="84"/>
+      <c r="AE140" s="84"/>
+      <c r="AF140" s="84"/>
+      <c r="AG140" s="84"/>
+      <c r="AH140" s="84"/>
+      <c r="AI140" s="84"/>
+      <c r="AJ140" s="84"/>
+      <c r="AK140" s="84"/>
+      <c r="AL140" s="84"/>
+      <c r="AM140" s="84"/>
+      <c r="AN140" s="84"/>
+      <c r="AO140" s="84"/>
+      <c r="AP140" s="84"/>
+      <c r="AQ140" s="84"/>
+      <c r="AR140" s="84"/>
+      <c r="AS140" s="84"/>
+      <c r="AT140" s="84"/>
+      <c r="AU140" s="85"/>
+      <c r="AV140" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="AW140" s="72"/>
-      <c r="AX140" s="72"/>
-      <c r="AY140" s="72"/>
-      <c r="AZ140" s="72"/>
-      <c r="BA140" s="72"/>
-      <c r="BB140" s="72"/>
-      <c r="BC140" s="72"/>
-      <c r="BD140" s="72"/>
-      <c r="BE140" s="72"/>
-      <c r="BF140" s="72"/>
-      <c r="BG140" s="72"/>
-      <c r="BH140" s="72"/>
-      <c r="BI140" s="72"/>
-      <c r="BJ140" s="72"/>
-      <c r="BK140" s="72"/>
-      <c r="BL140" s="72"/>
-      <c r="BM140" s="72"/>
-      <c r="BN140" s="72"/>
-      <c r="BO140" s="72"/>
-      <c r="BP140" s="72"/>
-      <c r="BQ140" s="72"/>
-      <c r="BR140" s="72"/>
-      <c r="BS140" s="72"/>
-      <c r="BT140" s="72"/>
-      <c r="BU140" s="72"/>
-      <c r="BV140" s="72"/>
-      <c r="BW140" s="72"/>
-      <c r="BX140" s="72"/>
-      <c r="BY140" s="73"/>
-      <c r="BZ140" s="71" t="s">
+      <c r="AW140" s="84"/>
+      <c r="AX140" s="84"/>
+      <c r="AY140" s="84"/>
+      <c r="AZ140" s="84"/>
+      <c r="BA140" s="84"/>
+      <c r="BB140" s="84"/>
+      <c r="BC140" s="84"/>
+      <c r="BD140" s="84"/>
+      <c r="BE140" s="84"/>
+      <c r="BF140" s="84"/>
+      <c r="BG140" s="84"/>
+      <c r="BH140" s="84"/>
+      <c r="BI140" s="84"/>
+      <c r="BJ140" s="84"/>
+      <c r="BK140" s="84"/>
+      <c r="BL140" s="84"/>
+      <c r="BM140" s="84"/>
+      <c r="BN140" s="84"/>
+      <c r="BO140" s="84"/>
+      <c r="BP140" s="84"/>
+      <c r="BQ140" s="84"/>
+      <c r="BR140" s="84"/>
+      <c r="BS140" s="84"/>
+      <c r="BT140" s="84"/>
+      <c r="BU140" s="84"/>
+      <c r="BV140" s="84"/>
+      <c r="BW140" s="84"/>
+      <c r="BX140" s="84"/>
+      <c r="BY140" s="85"/>
+      <c r="BZ140" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="CA140" s="72"/>
-      <c r="CB140" s="72"/>
-      <c r="CC140" s="72"/>
-      <c r="CD140" s="72"/>
-      <c r="CE140" s="72"/>
-      <c r="CF140" s="72"/>
-      <c r="CG140" s="72"/>
-      <c r="CH140" s="72"/>
-      <c r="CI140" s="72"/>
-      <c r="CJ140" s="72"/>
-      <c r="CK140" s="72"/>
-      <c r="CL140" s="72"/>
-      <c r="CM140" s="72"/>
-      <c r="CN140" s="72"/>
-      <c r="CO140" s="72"/>
-      <c r="CP140" s="72"/>
-      <c r="CQ140" s="72"/>
-      <c r="CR140" s="72"/>
-      <c r="CS140" s="72"/>
-      <c r="CT140" s="72"/>
-      <c r="CU140" s="72"/>
-      <c r="CV140" s="72"/>
-      <c r="CW140" s="72"/>
-      <c r="CX140" s="72"/>
-      <c r="CY140" s="72"/>
-      <c r="CZ140" s="72"/>
-      <c r="DA140" s="72"/>
-      <c r="DB140" s="72"/>
-      <c r="DC140" s="73"/>
-      <c r="DD140" s="71" t="s">
+      <c r="CA140" s="84"/>
+      <c r="CB140" s="84"/>
+      <c r="CC140" s="84"/>
+      <c r="CD140" s="84"/>
+      <c r="CE140" s="84"/>
+      <c r="CF140" s="84"/>
+      <c r="CG140" s="84"/>
+      <c r="CH140" s="84"/>
+      <c r="CI140" s="84"/>
+      <c r="CJ140" s="84"/>
+      <c r="CK140" s="84"/>
+      <c r="CL140" s="84"/>
+      <c r="CM140" s="84"/>
+      <c r="CN140" s="84"/>
+      <c r="CO140" s="84"/>
+      <c r="CP140" s="84"/>
+      <c r="CQ140" s="84"/>
+      <c r="CR140" s="84"/>
+      <c r="CS140" s="84"/>
+      <c r="CT140" s="84"/>
+      <c r="CU140" s="84"/>
+      <c r="CV140" s="84"/>
+      <c r="CW140" s="84"/>
+      <c r="CX140" s="84"/>
+      <c r="CY140" s="84"/>
+      <c r="CZ140" s="84"/>
+      <c r="DA140" s="84"/>
+      <c r="DB140" s="84"/>
+      <c r="DC140" s="85"/>
+      <c r="DD140" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="DE140" s="72"/>
-      <c r="DF140" s="72"/>
-      <c r="DG140" s="72"/>
-      <c r="DH140" s="72"/>
-      <c r="DI140" s="72"/>
-      <c r="DJ140" s="72"/>
-      <c r="DK140" s="72"/>
-      <c r="DL140" s="72"/>
-      <c r="DM140" s="72"/>
-      <c r="DN140" s="72"/>
-      <c r="DO140" s="72"/>
-      <c r="DP140" s="72"/>
-      <c r="DQ140" s="72"/>
-      <c r="DR140" s="72"/>
-      <c r="DS140" s="72"/>
-      <c r="DT140" s="72"/>
-      <c r="DU140" s="72"/>
-      <c r="DV140" s="72"/>
-      <c r="DW140" s="72"/>
-      <c r="DX140" s="72"/>
-      <c r="DY140" s="72"/>
-      <c r="DZ140" s="72"/>
-      <c r="EA140" s="72"/>
-      <c r="EB140" s="72"/>
-      <c r="EC140" s="72"/>
-      <c r="ED140" s="72"/>
-      <c r="EE140" s="72"/>
-      <c r="EF140" s="72"/>
-      <c r="EG140" s="73"/>
-      <c r="EH140" s="71" t="s">
+      <c r="DE140" s="84"/>
+      <c r="DF140" s="84"/>
+      <c r="DG140" s="84"/>
+      <c r="DH140" s="84"/>
+      <c r="DI140" s="84"/>
+      <c r="DJ140" s="84"/>
+      <c r="DK140" s="84"/>
+      <c r="DL140" s="84"/>
+      <c r="DM140" s="84"/>
+      <c r="DN140" s="84"/>
+      <c r="DO140" s="84"/>
+      <c r="DP140" s="84"/>
+      <c r="DQ140" s="84"/>
+      <c r="DR140" s="84"/>
+      <c r="DS140" s="84"/>
+      <c r="DT140" s="84"/>
+      <c r="DU140" s="84"/>
+      <c r="DV140" s="84"/>
+      <c r="DW140" s="84"/>
+      <c r="DX140" s="84"/>
+      <c r="DY140" s="84"/>
+      <c r="DZ140" s="84"/>
+      <c r="EA140" s="84"/>
+      <c r="EB140" s="84"/>
+      <c r="EC140" s="84"/>
+      <c r="ED140" s="84"/>
+      <c r="EE140" s="84"/>
+      <c r="EF140" s="84"/>
+      <c r="EG140" s="85"/>
+      <c r="EH140" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="EI140" s="72"/>
-      <c r="EJ140" s="72"/>
-      <c r="EK140" s="72"/>
-      <c r="EL140" s="72"/>
-      <c r="EM140" s="72"/>
-      <c r="EN140" s="72"/>
-      <c r="EO140" s="72"/>
-      <c r="EP140" s="72"/>
-      <c r="EQ140" s="72"/>
-      <c r="ER140" s="72"/>
-      <c r="ES140" s="72"/>
-      <c r="ET140" s="72"/>
-      <c r="EU140" s="72"/>
-      <c r="EV140" s="72"/>
-      <c r="EW140" s="72"/>
-      <c r="EX140" s="72"/>
-      <c r="EY140" s="72"/>
-      <c r="EZ140" s="72"/>
-      <c r="FA140" s="72"/>
-      <c r="FB140" s="72"/>
-      <c r="FC140" s="72"/>
-      <c r="FD140" s="72"/>
-      <c r="FE140" s="72"/>
-      <c r="FF140" s="72"/>
-      <c r="FG140" s="72"/>
-      <c r="FH140" s="72"/>
-      <c r="FI140" s="72"/>
-      <c r="FJ140" s="72"/>
-      <c r="FK140" s="73"/>
-      <c r="FL140" s="71" t="s">
+      <c r="EI140" s="84"/>
+      <c r="EJ140" s="84"/>
+      <c r="EK140" s="84"/>
+      <c r="EL140" s="84"/>
+      <c r="EM140" s="84"/>
+      <c r="EN140" s="84"/>
+      <c r="EO140" s="84"/>
+      <c r="EP140" s="84"/>
+      <c r="EQ140" s="84"/>
+      <c r="ER140" s="84"/>
+      <c r="ES140" s="84"/>
+      <c r="ET140" s="84"/>
+      <c r="EU140" s="84"/>
+      <c r="EV140" s="84"/>
+      <c r="EW140" s="84"/>
+      <c r="EX140" s="84"/>
+      <c r="EY140" s="84"/>
+      <c r="EZ140" s="84"/>
+      <c r="FA140" s="84"/>
+      <c r="FB140" s="84"/>
+      <c r="FC140" s="84"/>
+      <c r="FD140" s="84"/>
+      <c r="FE140" s="84"/>
+      <c r="FF140" s="84"/>
+      <c r="FG140" s="84"/>
+      <c r="FH140" s="84"/>
+      <c r="FI140" s="84"/>
+      <c r="FJ140" s="84"/>
+      <c r="FK140" s="85"/>
+      <c r="FL140" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="FM140" s="72"/>
-      <c r="FN140" s="72"/>
-      <c r="FO140" s="72"/>
-      <c r="FP140" s="72"/>
-      <c r="FQ140" s="72"/>
-      <c r="FR140" s="72"/>
-      <c r="FS140" s="72"/>
-      <c r="FT140" s="72"/>
-      <c r="FU140" s="72"/>
-      <c r="FV140" s="72"/>
-      <c r="FW140" s="72"/>
-      <c r="FX140" s="72"/>
-      <c r="FY140" s="72"/>
-      <c r="FZ140" s="72"/>
-      <c r="GA140" s="72"/>
-      <c r="GB140" s="72"/>
-      <c r="GC140" s="72"/>
-      <c r="GD140" s="72"/>
-      <c r="GE140" s="72"/>
-      <c r="GF140" s="72"/>
-      <c r="GG140" s="72"/>
-      <c r="GH140" s="72"/>
-      <c r="GI140" s="72"/>
-      <c r="GJ140" s="72"/>
-      <c r="GK140" s="72"/>
-      <c r="GL140" s="72"/>
-      <c r="GM140" s="72"/>
-      <c r="GN140" s="72"/>
-      <c r="GO140" s="72"/>
-      <c r="GP140" s="73"/>
-      <c r="GQ140" s="71" t="s">
+      <c r="FM140" s="84"/>
+      <c r="FN140" s="84"/>
+      <c r="FO140" s="84"/>
+      <c r="FP140" s="84"/>
+      <c r="FQ140" s="84"/>
+      <c r="FR140" s="84"/>
+      <c r="FS140" s="84"/>
+      <c r="FT140" s="84"/>
+      <c r="FU140" s="84"/>
+      <c r="FV140" s="84"/>
+      <c r="FW140" s="84"/>
+      <c r="FX140" s="84"/>
+      <c r="FY140" s="84"/>
+      <c r="FZ140" s="84"/>
+      <c r="GA140" s="84"/>
+      <c r="GB140" s="84"/>
+      <c r="GC140" s="84"/>
+      <c r="GD140" s="84"/>
+      <c r="GE140" s="84"/>
+      <c r="GF140" s="84"/>
+      <c r="GG140" s="84"/>
+      <c r="GH140" s="84"/>
+      <c r="GI140" s="84"/>
+      <c r="GJ140" s="84"/>
+      <c r="GK140" s="84"/>
+      <c r="GL140" s="84"/>
+      <c r="GM140" s="84"/>
+      <c r="GN140" s="84"/>
+      <c r="GO140" s="84"/>
+      <c r="GP140" s="85"/>
+      <c r="GQ140" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="GR140" s="72"/>
-      <c r="GS140" s="72"/>
-      <c r="GT140" s="72"/>
-      <c r="GU140" s="72"/>
-      <c r="GV140" s="72"/>
-      <c r="GW140" s="72"/>
-      <c r="GX140" s="72"/>
-      <c r="GY140" s="72"/>
-      <c r="GZ140" s="72"/>
-      <c r="HA140" s="72"/>
-      <c r="HB140" s="72"/>
-      <c r="HC140" s="72"/>
-      <c r="HD140" s="72"/>
-      <c r="HE140" s="72"/>
-      <c r="HF140" s="72"/>
-      <c r="HG140" s="72"/>
-      <c r="HH140" s="72"/>
-      <c r="HI140" s="72"/>
-      <c r="HJ140" s="72"/>
-      <c r="HK140" s="72"/>
-      <c r="HL140" s="72"/>
-      <c r="HM140" s="72"/>
-      <c r="HN140" s="72"/>
-      <c r="HO140" s="72"/>
-      <c r="HP140" s="72"/>
-      <c r="HQ140" s="72"/>
-      <c r="HR140" s="72"/>
-      <c r="HS140" s="72"/>
-      <c r="HT140" s="73"/>
-      <c r="HU140" s="71" t="s">
+      <c r="GR140" s="84"/>
+      <c r="GS140" s="84"/>
+      <c r="GT140" s="84"/>
+      <c r="GU140" s="84"/>
+      <c r="GV140" s="84"/>
+      <c r="GW140" s="84"/>
+      <c r="GX140" s="84"/>
+      <c r="GY140" s="84"/>
+      <c r="GZ140" s="84"/>
+      <c r="HA140" s="84"/>
+      <c r="HB140" s="84"/>
+      <c r="HC140" s="84"/>
+      <c r="HD140" s="84"/>
+      <c r="HE140" s="84"/>
+      <c r="HF140" s="84"/>
+      <c r="HG140" s="84"/>
+      <c r="HH140" s="84"/>
+      <c r="HI140" s="84"/>
+      <c r="HJ140" s="84"/>
+      <c r="HK140" s="84"/>
+      <c r="HL140" s="84"/>
+      <c r="HM140" s="84"/>
+      <c r="HN140" s="84"/>
+      <c r="HO140" s="84"/>
+      <c r="HP140" s="84"/>
+      <c r="HQ140" s="84"/>
+      <c r="HR140" s="84"/>
+      <c r="HS140" s="84"/>
+      <c r="HT140" s="85"/>
+      <c r="HU140" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="HV140" s="72"/>
-      <c r="HW140" s="72"/>
-      <c r="HX140" s="72"/>
-      <c r="HY140" s="72"/>
-      <c r="HZ140" s="72"/>
-      <c r="IA140" s="72"/>
-      <c r="IB140" s="72"/>
-      <c r="IC140" s="72"/>
-      <c r="ID140" s="72"/>
-      <c r="IE140" s="72"/>
-      <c r="IF140" s="72"/>
-      <c r="IG140" s="72"/>
-      <c r="IH140" s="72"/>
-      <c r="II140" s="72"/>
-      <c r="IJ140" s="72"/>
-      <c r="IK140" s="72"/>
-      <c r="IL140" s="72"/>
-      <c r="IM140" s="72"/>
-      <c r="IN140" s="72"/>
-      <c r="IO140" s="72"/>
-      <c r="IP140" s="72"/>
-      <c r="IQ140" s="72"/>
-      <c r="IR140" s="72"/>
-      <c r="IS140" s="72"/>
-      <c r="IT140" s="72"/>
-      <c r="IU140" s="72"/>
-      <c r="IV140" s="72"/>
-      <c r="IW140" s="72"/>
-      <c r="IX140" s="73"/>
-      <c r="IY140" s="71" t="s">
+      <c r="HV140" s="84"/>
+      <c r="HW140" s="84"/>
+      <c r="HX140" s="84"/>
+      <c r="HY140" s="84"/>
+      <c r="HZ140" s="84"/>
+      <c r="IA140" s="84"/>
+      <c r="IB140" s="84"/>
+      <c r="IC140" s="84"/>
+      <c r="ID140" s="84"/>
+      <c r="IE140" s="84"/>
+      <c r="IF140" s="84"/>
+      <c r="IG140" s="84"/>
+      <c r="IH140" s="84"/>
+      <c r="II140" s="84"/>
+      <c r="IJ140" s="84"/>
+      <c r="IK140" s="84"/>
+      <c r="IL140" s="84"/>
+      <c r="IM140" s="84"/>
+      <c r="IN140" s="84"/>
+      <c r="IO140" s="84"/>
+      <c r="IP140" s="84"/>
+      <c r="IQ140" s="84"/>
+      <c r="IR140" s="84"/>
+      <c r="IS140" s="84"/>
+      <c r="IT140" s="84"/>
+      <c r="IU140" s="84"/>
+      <c r="IV140" s="84"/>
+      <c r="IW140" s="84"/>
+      <c r="IX140" s="85"/>
+      <c r="IY140" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="IZ140" s="72"/>
-      <c r="JA140" s="72"/>
-      <c r="JB140" s="72"/>
-      <c r="JC140" s="72"/>
-      <c r="JD140" s="72"/>
-      <c r="JE140" s="72"/>
-      <c r="JF140" s="72"/>
-      <c r="JG140" s="72"/>
-      <c r="JH140" s="72"/>
-      <c r="JI140" s="72"/>
-      <c r="JJ140" s="72"/>
-      <c r="JK140" s="72"/>
-      <c r="JL140" s="72"/>
-      <c r="JM140" s="73"/>
-      <c r="JN140" s="71" t="s">
+      <c r="IZ140" s="84"/>
+      <c r="JA140" s="84"/>
+      <c r="JB140" s="84"/>
+      <c r="JC140" s="84"/>
+      <c r="JD140" s="84"/>
+      <c r="JE140" s="84"/>
+      <c r="JF140" s="84"/>
+      <c r="JG140" s="84"/>
+      <c r="JH140" s="84"/>
+      <c r="JI140" s="84"/>
+      <c r="JJ140" s="84"/>
+      <c r="JK140" s="84"/>
+      <c r="JL140" s="84"/>
+      <c r="JM140" s="85"/>
+      <c r="JN140" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="JO140" s="72"/>
-      <c r="JP140" s="72"/>
-      <c r="JQ140" s="72"/>
-      <c r="JR140" s="72"/>
-      <c r="JS140" s="72"/>
-      <c r="JT140" s="72"/>
-      <c r="JU140" s="72"/>
-      <c r="JV140" s="72"/>
-      <c r="JW140" s="72"/>
-      <c r="JX140" s="72"/>
-      <c r="JY140" s="72"/>
-      <c r="JZ140" s="72"/>
-      <c r="KA140" s="72"/>
-      <c r="KB140" s="72"/>
-      <c r="KC140" s="73"/>
-      <c r="KD140" s="71" t="s">
+      <c r="JO140" s="84"/>
+      <c r="JP140" s="84"/>
+      <c r="JQ140" s="84"/>
+      <c r="JR140" s="84"/>
+      <c r="JS140" s="84"/>
+      <c r="JT140" s="84"/>
+      <c r="JU140" s="84"/>
+      <c r="JV140" s="84"/>
+      <c r="JW140" s="84"/>
+      <c r="JX140" s="84"/>
+      <c r="JY140" s="84"/>
+      <c r="JZ140" s="84"/>
+      <c r="KA140" s="84"/>
+      <c r="KB140" s="84"/>
+      <c r="KC140" s="85"/>
+      <c r="KD140" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="KE140" s="72"/>
-      <c r="KF140" s="72"/>
-      <c r="KG140" s="72"/>
-      <c r="KH140" s="72"/>
-      <c r="KI140" s="72"/>
-      <c r="KJ140" s="72"/>
-      <c r="KK140" s="72"/>
-      <c r="KL140" s="72"/>
-      <c r="KM140" s="72"/>
-      <c r="KN140" s="72"/>
-      <c r="KO140" s="72"/>
-      <c r="KP140" s="72"/>
-      <c r="KQ140" s="72"/>
-      <c r="KR140" s="72"/>
-      <c r="KS140" s="73"/>
-      <c r="KT140" s="71" t="s">
+      <c r="KE140" s="84"/>
+      <c r="KF140" s="84"/>
+      <c r="KG140" s="84"/>
+      <c r="KH140" s="84"/>
+      <c r="KI140" s="84"/>
+      <c r="KJ140" s="84"/>
+      <c r="KK140" s="84"/>
+      <c r="KL140" s="84"/>
+      <c r="KM140" s="84"/>
+      <c r="KN140" s="84"/>
+      <c r="KO140" s="84"/>
+      <c r="KP140" s="84"/>
+      <c r="KQ140" s="84"/>
+      <c r="KR140" s="84"/>
+      <c r="KS140" s="85"/>
+      <c r="KT140" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="KU140" s="72"/>
-      <c r="KV140" s="72"/>
-      <c r="KW140" s="72"/>
-      <c r="KX140" s="72"/>
-      <c r="KY140" s="72"/>
-      <c r="KZ140" s="72"/>
-      <c r="LA140" s="72"/>
-      <c r="LB140" s="72"/>
-      <c r="LC140" s="72"/>
-      <c r="LD140" s="72"/>
-      <c r="LE140" s="72"/>
-      <c r="LF140" s="72"/>
-      <c r="LG140" s="72"/>
-      <c r="LH140" s="72"/>
-      <c r="LI140" s="73"/>
-      <c r="LJ140" s="71" t="s">
+      <c r="KU140" s="84"/>
+      <c r="KV140" s="84"/>
+      <c r="KW140" s="84"/>
+      <c r="KX140" s="84"/>
+      <c r="KY140" s="84"/>
+      <c r="KZ140" s="84"/>
+      <c r="LA140" s="84"/>
+      <c r="LB140" s="84"/>
+      <c r="LC140" s="84"/>
+      <c r="LD140" s="84"/>
+      <c r="LE140" s="84"/>
+      <c r="LF140" s="84"/>
+      <c r="LG140" s="84"/>
+      <c r="LH140" s="84"/>
+      <c r="LI140" s="85"/>
+      <c r="LJ140" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="LK140" s="72"/>
-      <c r="LL140" s="72"/>
-      <c r="LM140" s="72"/>
-      <c r="LN140" s="72"/>
-      <c r="LO140" s="72"/>
-      <c r="LP140" s="72"/>
-      <c r="LQ140" s="72"/>
-      <c r="LR140" s="72"/>
-      <c r="LS140" s="72"/>
-      <c r="LT140" s="72"/>
-      <c r="LU140" s="72"/>
-      <c r="LV140" s="72"/>
-      <c r="LW140" s="72"/>
-      <c r="LX140" s="72"/>
-      <c r="LY140" s="73"/>
+      <c r="LK140" s="84"/>
+      <c r="LL140" s="84"/>
+      <c r="LM140" s="84"/>
+      <c r="LN140" s="84"/>
+      <c r="LO140" s="84"/>
+      <c r="LP140" s="84"/>
+      <c r="LQ140" s="84"/>
+      <c r="LR140" s="84"/>
+      <c r="LS140" s="84"/>
+      <c r="LT140" s="84"/>
+      <c r="LU140" s="84"/>
+      <c r="LV140" s="84"/>
+      <c r="LW140" s="84"/>
+      <c r="LX140" s="84"/>
+      <c r="LY140" s="85"/>
       <c r="LZ140" s="20" t="s">
         <v>6</v>
       </c>
@@ -27997,7 +27975,7 @@
       </c>
       <c r="MA144" s="11"/>
     </row>
-    <row r="145" spans="2:334" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:334" x14ac:dyDescent="0.25">
       <c r="B145" s="42" t="s">
         <v>94</v>
       </c>
@@ -28008,16 +27986,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:334" ht="45" x14ac:dyDescent="0.25">
-      <c r="B146" s="71" t="s">
+    <row r="146" spans="1:334" ht="45" x14ac:dyDescent="0.25">
+      <c r="B146" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C146" s="72"/>
-      <c r="D146" s="73"/>
-      <c r="E146" s="71" t="s">
+      <c r="C146" s="84"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F146" s="73"/>
+      <c r="F146" s="85"/>
       <c r="G146" s="20" t="s">
         <v>4</v>
       </c>
@@ -28048,7 +28026,7 @@
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
     </row>
-    <row r="147" spans="2:334" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:334" x14ac:dyDescent="0.25">
       <c r="B147" s="15" t="s">
         <v>7</v>
       </c>
@@ -28090,7 +28068,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="2:334" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:334" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
         <v>14</v>
       </c>
@@ -28137,7 +28115,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="2:334" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:334" x14ac:dyDescent="0.25">
       <c r="E149" s="1">
         <v>1010</v>
       </c>
@@ -28160,7 +28138,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="2:334" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:334" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>0</v>
       </c>
@@ -28207,7 +28185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="2:334" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:334" x14ac:dyDescent="0.25">
       <c r="B151" s="42" t="s">
         <v>99</v>
       </c>
@@ -28223,16 +28201,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="2:334" x14ac:dyDescent="0.25">
-      <c r="B152" s="71" t="s">
+    <row r="152" spans="1:334" x14ac:dyDescent="0.25">
+      <c r="B152" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="72"/>
-      <c r="D152" s="73"/>
-      <c r="E152" s="71" t="s">
+      <c r="C152" s="84"/>
+      <c r="D152" s="85"/>
+      <c r="E152" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F152" s="73"/>
+      <c r="F152" s="85"/>
       <c r="G152" s="20" t="s">
         <v>4</v>
       </c>
@@ -28257,7 +28235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="2:334" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:334" x14ac:dyDescent="0.25">
       <c r="B153" s="3" t="s">
         <v>7</v>
       </c>
@@ -28295,7 +28273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:334" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:334" x14ac:dyDescent="0.25">
       <c r="B154" s="3" t="s">
         <v>14</v>
       </c>
@@ -28332,14 +28310,14 @@
       <c r="R154" s="11"/>
       <c r="S154" s="11"/>
     </row>
-    <row r="155" spans="2:334" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:334" x14ac:dyDescent="0.25">
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
       <c r="Q155" s="11"/>
       <c r="R155" s="11"/>
       <c r="S155" s="11"/>
     </row>
-    <row r="159" spans="2:334" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:334" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>0</v>
       </c>
@@ -28440,7 +28418,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="2:334" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:334" x14ac:dyDescent="0.25">
+      <c r="A160" s="90"/>
       <c r="B160" s="42" t="s">
         <v>121</v>
       </c>
@@ -28449,15 +28428,16 @@
       </c>
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B161" s="77" t="s">
+      <c r="A161" s="90"/>
+      <c r="B161" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C161" s="77"/>
-      <c r="D161" s="77"/>
-      <c r="E161" s="77" t="s">
+      <c r="C161" s="79"/>
+      <c r="D161" s="79"/>
+      <c r="E161" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F161" s="77"/>
+      <c r="F161" s="79"/>
       <c r="G161" s="49" t="s">
         <v>4</v>
       </c>
@@ -28467,39 +28447,40 @@
       <c r="I161" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="J161" s="74" t="s">
+      <c r="J161" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="K161" s="75"/>
-      <c r="L161" s="75"/>
-      <c r="M161" s="75"/>
-      <c r="N161" s="75"/>
-      <c r="O161" s="75"/>
-      <c r="P161" s="75"/>
-      <c r="Q161" s="75"/>
-      <c r="R161" s="75"/>
-      <c r="S161" s="75"/>
-      <c r="T161" s="76"/>
-      <c r="U161" s="74" t="s">
+      <c r="K161" s="77"/>
+      <c r="L161" s="77"/>
+      <c r="M161" s="77"/>
+      <c r="N161" s="77"/>
+      <c r="O161" s="77"/>
+      <c r="P161" s="77"/>
+      <c r="Q161" s="77"/>
+      <c r="R161" s="77"/>
+      <c r="S161" s="77"/>
+      <c r="T161" s="78"/>
+      <c r="U161" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="V161" s="75"/>
-      <c r="W161" s="75"/>
-      <c r="X161" s="75"/>
-      <c r="Y161" s="75"/>
-      <c r="Z161" s="75"/>
-      <c r="AA161" s="75"/>
-      <c r="AB161" s="75"/>
-      <c r="AC161" s="75"/>
-      <c r="AD161" s="75"/>
-      <c r="AE161" s="75"/>
-      <c r="AF161" s="75"/>
-      <c r="AG161" s="76"/>
+      <c r="V161" s="77"/>
+      <c r="W161" s="77"/>
+      <c r="X161" s="77"/>
+      <c r="Y161" s="77"/>
+      <c r="Z161" s="77"/>
+      <c r="AA161" s="77"/>
+      <c r="AB161" s="77"/>
+      <c r="AC161" s="77"/>
+      <c r="AD161" s="77"/>
+      <c r="AE161" s="77"/>
+      <c r="AF161" s="77"/>
+      <c r="AG161" s="78"/>
       <c r="AH161" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A162" s="90"/>
       <c r="B162" s="3" t="s">
         <v>7</v>
       </c>
@@ -28539,6 +28520,7 @@
       <c r="AH162" s="3"/>
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A163" s="90"/>
       <c r="B163" s="3" t="s">
         <v>14</v>
       </c>
@@ -28836,15 +28818,15 @@
       <c r="K166" s="11"/>
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B167" s="74" t="s">
+      <c r="B167" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C167" s="75"/>
-      <c r="D167" s="76"/>
-      <c r="E167" s="74" t="s">
+      <c r="C167" s="77"/>
+      <c r="D167" s="78"/>
+      <c r="E167" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F167" s="76"/>
+      <c r="F167" s="78"/>
       <c r="G167" s="49" t="s">
         <v>4</v>
       </c>
@@ -29246,26 +29228,62 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="U161:AG161"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="J126:L126"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="AH114:AL114"/>
-    <mergeCell ref="U44:AB44"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="K83:AN83"/>
-    <mergeCell ref="K52:O52"/>
-    <mergeCell ref="AC44:AM44"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="P114:W114"/>
+    <mergeCell ref="KT140:LI140"/>
+    <mergeCell ref="LJ140:LY140"/>
+    <mergeCell ref="J161:T161"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="HU140:IX140"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="IY140:JM140"/>
+    <mergeCell ref="JN140:KC140"/>
+    <mergeCell ref="KD140:KS140"/>
+    <mergeCell ref="GQ140:HT140"/>
+    <mergeCell ref="J103:S103"/>
+    <mergeCell ref="DD140:EG140"/>
+    <mergeCell ref="EH140:FK140"/>
+    <mergeCell ref="FL140:GP140"/>
+    <mergeCell ref="AM114:AT114"/>
+    <mergeCell ref="AU114:BB114"/>
+    <mergeCell ref="BC114:BN114"/>
+    <mergeCell ref="BO114:BZ114"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="P126:T126"/>
+    <mergeCell ref="U126:AB126"/>
+    <mergeCell ref="AC126:AJ126"/>
+    <mergeCell ref="R140:AU140"/>
+    <mergeCell ref="AV140:BY140"/>
+    <mergeCell ref="BZ140:DC140"/>
+    <mergeCell ref="X114:AG114"/>
+    <mergeCell ref="AB95:AK95"/>
+    <mergeCell ref="AL95:BE95"/>
+    <mergeCell ref="BF95:BY95"/>
+    <mergeCell ref="CX95:DM95"/>
+    <mergeCell ref="CC95:CI95"/>
+    <mergeCell ref="CJ95:CP95"/>
+    <mergeCell ref="CQ95:CW95"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="J95:S95"/>
+    <mergeCell ref="T95:AA95"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="L65:W65"/>
+    <mergeCell ref="X65:AI65"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="X52:AE52"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:F59"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="K32:R32"/>
     <mergeCell ref="U32:Y32"/>
@@ -29282,66 +29300,30 @@
     <mergeCell ref="P52:W52"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="S24:AB24"/>
+    <mergeCell ref="AH114:AL114"/>
+    <mergeCell ref="U44:AB44"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="K83:AN83"/>
+    <mergeCell ref="K52:O52"/>
+    <mergeCell ref="AC44:AM44"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="P114:W114"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="L44:S44"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="X52:AE52"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:F59"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="L65:W65"/>
-    <mergeCell ref="X65:AI65"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="J95:S95"/>
-    <mergeCell ref="T95:AA95"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="AB95:AK95"/>
-    <mergeCell ref="AL95:BE95"/>
-    <mergeCell ref="BF95:BY95"/>
-    <mergeCell ref="CX95:DM95"/>
-    <mergeCell ref="CC95:CI95"/>
-    <mergeCell ref="CJ95:CP95"/>
-    <mergeCell ref="CQ95:CW95"/>
-    <mergeCell ref="J103:S103"/>
-    <mergeCell ref="DD140:EG140"/>
-    <mergeCell ref="EH140:FK140"/>
-    <mergeCell ref="FL140:GP140"/>
-    <mergeCell ref="AM114:AT114"/>
-    <mergeCell ref="AU114:BB114"/>
-    <mergeCell ref="BC114:BN114"/>
-    <mergeCell ref="BO114:BZ114"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="P126:T126"/>
-    <mergeCell ref="U126:AB126"/>
-    <mergeCell ref="AC126:AJ126"/>
-    <mergeCell ref="R140:AU140"/>
-    <mergeCell ref="AV140:BY140"/>
-    <mergeCell ref="BZ140:DC140"/>
-    <mergeCell ref="X114:AG114"/>
-    <mergeCell ref="KT140:LI140"/>
-    <mergeCell ref="LJ140:LY140"/>
-    <mergeCell ref="J161:T161"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="HU140:IX140"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="IY140:JM140"/>
-    <mergeCell ref="JN140:KC140"/>
-    <mergeCell ref="KD140:KS140"/>
-    <mergeCell ref="GQ140:HT140"/>
+    <mergeCell ref="U161:AG161"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="J126:L126"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="E140:F140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/PROTOCOLO NSX-Prime.xlsx
+++ b/PROTOCOLO NSX-Prime.xlsx
@@ -1216,15 +1216,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1238,6 +1229,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,18 +1257,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -14817,8 +14817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:MA194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="GC134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="GC138" sqref="GC138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15378,15 +15378,15 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="71"/>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82" t="s">
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="82"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="49" t="s">
         <v>4</v>
       </c>
@@ -15399,41 +15399,41 @@
       <c r="J22" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="82" t="s">
+      <c r="K22" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82" t="s">
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
       <c r="AC22" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AD22" s="79" t="s">
+      <c r="AD22" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="AE22" s="80"/>
-      <c r="AF22" s="80"/>
-      <c r="AG22" s="80"/>
-      <c r="AH22" s="80"/>
-      <c r="AI22" s="80"/>
-      <c r="AJ22" s="80"/>
-      <c r="AK22" s="81"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="78"/>
       <c r="AL22" s="57" t="s">
         <v>6</v>
       </c>
@@ -15777,15 +15777,15 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="74"/>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82" t="s">
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="82"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="49" t="s">
         <v>4</v>
       </c>
@@ -15798,29 +15798,29 @@
       <c r="J29" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="79" t="s">
+      <c r="K29" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="81"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="78"/>
       <c r="S29" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U29" s="82" t="s">
+      <c r="U29" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
       <c r="Z29" s="49" t="s">
         <v>6</v>
       </c>
@@ -16062,15 +16062,15 @@
       </c>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82" t="s">
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="82"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="62" t="s">
         <v>4</v>
       </c>
@@ -16288,15 +16288,15 @@
       </c>
     </row>
     <row r="41" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82" t="s">
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="82"/>
+      <c r="F41" s="79"/>
       <c r="G41" s="49" t="s">
         <v>4</v>
       </c>
@@ -16312,42 +16312,42 @@
       <c r="K41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="79" t="s">
+      <c r="L41" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
-      <c r="Q41" s="80"/>
-      <c r="R41" s="80"/>
-      <c r="S41" s="81"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="78"/>
       <c r="T41" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="U41" s="79" t="s">
+      <c r="U41" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="V41" s="80"/>
-      <c r="W41" s="80"/>
-      <c r="X41" s="80"/>
-      <c r="Y41" s="80"/>
-      <c r="Z41" s="80"/>
-      <c r="AA41" s="80"/>
-      <c r="AB41" s="81"/>
-      <c r="AC41" s="79" t="s">
+      <c r="V41" s="77"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="77"/>
+      <c r="Y41" s="77"/>
+      <c r="Z41" s="77"/>
+      <c r="AA41" s="77"/>
+      <c r="AB41" s="78"/>
+      <c r="AC41" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="AD41" s="80"/>
-      <c r="AE41" s="80"/>
-      <c r="AF41" s="80"/>
-      <c r="AG41" s="80"/>
-      <c r="AH41" s="80"/>
-      <c r="AI41" s="80"/>
-      <c r="AJ41" s="80"/>
-      <c r="AK41" s="80"/>
-      <c r="AL41" s="80"/>
-      <c r="AM41" s="81"/>
+      <c r="AD41" s="77"/>
+      <c r="AE41" s="77"/>
+      <c r="AF41" s="77"/>
+      <c r="AG41" s="77"/>
+      <c r="AH41" s="77"/>
+      <c r="AI41" s="77"/>
+      <c r="AJ41" s="77"/>
+      <c r="AK41" s="77"/>
+      <c r="AL41" s="77"/>
+      <c r="AM41" s="78"/>
       <c r="AN41" s="49" t="s">
         <v>6</v>
       </c>
@@ -16831,15 +16831,15 @@
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B49" s="82" t="s">
+      <c r="B49" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82" t="s">
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F49" s="82"/>
+      <c r="F49" s="79"/>
       <c r="G49" s="49" t="s">
         <v>4</v>
       </c>
@@ -16852,33 +16852,33 @@
       <c r="J49" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K49" s="82" t="s">
+      <c r="K49" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82" t="s">
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82" t="s">
+      <c r="Q49" s="79"/>
+      <c r="R49" s="79"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="79"/>
+      <c r="U49" s="79"/>
+      <c r="V49" s="79"/>
+      <c r="W49" s="79"/>
+      <c r="X49" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="82"/>
-      <c r="AB49" s="82"/>
-      <c r="AC49" s="82"/>
-      <c r="AD49" s="82"/>
-      <c r="AE49" s="82"/>
+      <c r="Y49" s="79"/>
+      <c r="Z49" s="79"/>
+      <c r="AA49" s="79"/>
+      <c r="AB49" s="79"/>
+      <c r="AC49" s="79"/>
+      <c r="AD49" s="79"/>
+      <c r="AE49" s="79"/>
       <c r="AF49" s="49" t="s">
         <v>6</v>
       </c>
@@ -17201,15 +17201,15 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="74"/>
-      <c r="B56" s="82" t="s">
+      <c r="B56" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82" t="s">
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="82"/>
+      <c r="F56" s="79"/>
       <c r="G56" s="49" t="s">
         <v>4</v>
       </c>
@@ -17391,15 +17391,15 @@
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B62" s="82" t="s">
+      <c r="B62" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82" t="s">
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F62" s="82"/>
+      <c r="F62" s="79"/>
       <c r="G62" s="49" t="s">
         <v>4</v>
       </c>
@@ -17415,34 +17415,34 @@
       <c r="K62" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L62" s="82" t="s">
+      <c r="L62" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="M62" s="82"/>
-      <c r="N62" s="82"/>
-      <c r="O62" s="82"/>
-      <c r="P62" s="82"/>
-      <c r="Q62" s="82"/>
-      <c r="R62" s="82"/>
-      <c r="S62" s="82"/>
-      <c r="T62" s="82"/>
-      <c r="U62" s="82"/>
-      <c r="V62" s="82"/>
-      <c r="W62" s="82"/>
-      <c r="X62" s="82" t="s">
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="79"/>
+      <c r="P62" s="79"/>
+      <c r="Q62" s="79"/>
+      <c r="R62" s="79"/>
+      <c r="S62" s="79"/>
+      <c r="T62" s="79"/>
+      <c r="U62" s="79"/>
+      <c r="V62" s="79"/>
+      <c r="W62" s="79"/>
+      <c r="X62" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="Y62" s="82"/>
-      <c r="Z62" s="82"/>
-      <c r="AA62" s="82"/>
-      <c r="AB62" s="82"/>
-      <c r="AC62" s="82"/>
-      <c r="AD62" s="82"/>
-      <c r="AE62" s="82"/>
-      <c r="AF62" s="82"/>
-      <c r="AG62" s="82"/>
-      <c r="AH62" s="82"/>
-      <c r="AI62" s="82"/>
+      <c r="Y62" s="79"/>
+      <c r="Z62" s="79"/>
+      <c r="AA62" s="79"/>
+      <c r="AB62" s="79"/>
+      <c r="AC62" s="79"/>
+      <c r="AD62" s="79"/>
+      <c r="AE62" s="79"/>
+      <c r="AF62" s="79"/>
+      <c r="AG62" s="79"/>
+      <c r="AH62" s="79"/>
+      <c r="AI62" s="79"/>
       <c r="AJ62" s="49" t="s">
         <v>6</v>
       </c>
@@ -17872,15 +17872,15 @@
     </row>
     <row r="68" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A68" s="74"/>
-      <c r="B68" s="82" t="s">
+      <c r="B68" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82" t="s">
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F68" s="82"/>
+      <c r="F68" s="79"/>
       <c r="G68" s="49" t="s">
         <v>4</v>
       </c>
@@ -17893,13 +17893,13 @@
       <c r="J68" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="K68" s="79" t="s">
+      <c r="K68" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="L68" s="80"/>
-      <c r="M68" s="80"/>
-      <c r="N68" s="80"/>
-      <c r="O68" s="81"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="78"/>
       <c r="P68" s="49" t="s">
         <v>6</v>
       </c>
@@ -18047,15 +18047,15 @@
     </row>
     <row r="74" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A74" s="70"/>
-      <c r="B74" s="82" t="s">
+      <c r="B74" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="82"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="82" t="s">
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="82"/>
+      <c r="F74" s="79"/>
       <c r="G74" s="49" t="s">
         <v>4</v>
       </c>
@@ -18141,15 +18141,15 @@
     </row>
     <row r="80" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A80" s="71"/>
-      <c r="B80" s="82" t="s">
+      <c r="B80" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="82"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="82" t="s">
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="82"/>
+      <c r="F80" s="79"/>
       <c r="G80" s="49" t="s">
         <v>4</v>
       </c>
@@ -18162,38 +18162,38 @@
       <c r="J80" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="K80" s="79" t="s">
+      <c r="K80" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="L80" s="80"/>
-      <c r="M80" s="80"/>
-      <c r="N80" s="80"/>
-      <c r="O80" s="80"/>
-      <c r="P80" s="80"/>
-      <c r="Q80" s="80"/>
-      <c r="R80" s="80"/>
-      <c r="S80" s="80"/>
-      <c r="T80" s="80"/>
-      <c r="U80" s="80"/>
-      <c r="V80" s="80"/>
-      <c r="W80" s="80"/>
-      <c r="X80" s="80"/>
-      <c r="Y80" s="80"/>
-      <c r="Z80" s="80"/>
-      <c r="AA80" s="80"/>
-      <c r="AB80" s="80"/>
-      <c r="AC80" s="80"/>
-      <c r="AD80" s="80"/>
-      <c r="AE80" s="80"/>
-      <c r="AF80" s="80"/>
-      <c r="AG80" s="80"/>
-      <c r="AH80" s="80"/>
-      <c r="AI80" s="80"/>
-      <c r="AJ80" s="80"/>
-      <c r="AK80" s="80"/>
-      <c r="AL80" s="80"/>
-      <c r="AM80" s="80"/>
-      <c r="AN80" s="81"/>
+      <c r="L80" s="77"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="77"/>
+      <c r="R80" s="77"/>
+      <c r="S80" s="77"/>
+      <c r="T80" s="77"/>
+      <c r="U80" s="77"/>
+      <c r="V80" s="77"/>
+      <c r="W80" s="77"/>
+      <c r="X80" s="77"/>
+      <c r="Y80" s="77"/>
+      <c r="Z80" s="77"/>
+      <c r="AA80" s="77"/>
+      <c r="AB80" s="77"/>
+      <c r="AC80" s="77"/>
+      <c r="AD80" s="77"/>
+      <c r="AE80" s="77"/>
+      <c r="AF80" s="77"/>
+      <c r="AG80" s="77"/>
+      <c r="AH80" s="77"/>
+      <c r="AI80" s="77"/>
+      <c r="AJ80" s="77"/>
+      <c r="AK80" s="77"/>
+      <c r="AL80" s="77"/>
+      <c r="AM80" s="77"/>
+      <c r="AN80" s="78"/>
       <c r="AO80" s="49" t="s">
         <v>6</v>
       </c>
@@ -18650,15 +18650,15 @@
       </c>
     </row>
     <row r="85" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="B85" s="82" t="s">
+      <c r="B85" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="82"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82" t="s">
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F85" s="82"/>
+      <c r="F85" s="79"/>
       <c r="G85" s="61" t="s">
         <v>4</v>
       </c>
@@ -19220,15 +19220,15 @@
     </row>
     <row r="92" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A92" s="70"/>
-      <c r="B92" s="82" t="s">
+      <c r="B92" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="82"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="88" t="s">
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="F92" s="88"/>
+      <c r="F92" s="86"/>
       <c r="G92" s="51" t="s">
         <v>4</v>
       </c>
@@ -19238,84 +19238,84 @@
       <c r="I92" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J92" s="83" t="s">
+      <c r="J92" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="K92" s="84"/>
-      <c r="L92" s="84"/>
-      <c r="M92" s="84"/>
-      <c r="N92" s="84"/>
-      <c r="O92" s="84"/>
-      <c r="P92" s="84"/>
-      <c r="Q92" s="84"/>
-      <c r="R92" s="84"/>
-      <c r="S92" s="85"/>
-      <c r="T92" s="83" t="s">
+      <c r="K92" s="88"/>
+      <c r="L92" s="88"/>
+      <c r="M92" s="88"/>
+      <c r="N92" s="88"/>
+      <c r="O92" s="88"/>
+      <c r="P92" s="88"/>
+      <c r="Q92" s="88"/>
+      <c r="R92" s="88"/>
+      <c r="S92" s="89"/>
+      <c r="T92" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="U92" s="84"/>
-      <c r="V92" s="84"/>
-      <c r="W92" s="84"/>
-      <c r="X92" s="84"/>
-      <c r="Y92" s="84"/>
-      <c r="Z92" s="84"/>
-      <c r="AA92" s="85"/>
-      <c r="AB92" s="83" t="s">
+      <c r="U92" s="88"/>
+      <c r="V92" s="88"/>
+      <c r="W92" s="88"/>
+      <c r="X92" s="88"/>
+      <c r="Y92" s="88"/>
+      <c r="Z92" s="88"/>
+      <c r="AA92" s="89"/>
+      <c r="AB92" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="AC92" s="84"/>
-      <c r="AD92" s="84"/>
-      <c r="AE92" s="84"/>
-      <c r="AF92" s="84"/>
-      <c r="AG92" s="84"/>
-      <c r="AH92" s="84"/>
-      <c r="AI92" s="84"/>
-      <c r="AJ92" s="84"/>
-      <c r="AK92" s="85"/>
-      <c r="AL92" s="83" t="s">
+      <c r="AC92" s="88"/>
+      <c r="AD92" s="88"/>
+      <c r="AE92" s="88"/>
+      <c r="AF92" s="88"/>
+      <c r="AG92" s="88"/>
+      <c r="AH92" s="88"/>
+      <c r="AI92" s="88"/>
+      <c r="AJ92" s="88"/>
+      <c r="AK92" s="89"/>
+      <c r="AL92" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="AM92" s="84"/>
-      <c r="AN92" s="84"/>
-      <c r="AO92" s="84"/>
-      <c r="AP92" s="84"/>
-      <c r="AQ92" s="84"/>
-      <c r="AR92" s="84"/>
-      <c r="AS92" s="84"/>
-      <c r="AT92" s="84"/>
-      <c r="AU92" s="84"/>
-      <c r="AV92" s="84"/>
-      <c r="AW92" s="84"/>
-      <c r="AX92" s="84"/>
-      <c r="AY92" s="84"/>
-      <c r="AZ92" s="84"/>
-      <c r="BA92" s="84"/>
-      <c r="BB92" s="84"/>
-      <c r="BC92" s="84"/>
-      <c r="BD92" s="84"/>
-      <c r="BE92" s="85"/>
-      <c r="BF92" s="83" t="s">
+      <c r="AM92" s="88"/>
+      <c r="AN92" s="88"/>
+      <c r="AO92" s="88"/>
+      <c r="AP92" s="88"/>
+      <c r="AQ92" s="88"/>
+      <c r="AR92" s="88"/>
+      <c r="AS92" s="88"/>
+      <c r="AT92" s="88"/>
+      <c r="AU92" s="88"/>
+      <c r="AV92" s="88"/>
+      <c r="AW92" s="88"/>
+      <c r="AX92" s="88"/>
+      <c r="AY92" s="88"/>
+      <c r="AZ92" s="88"/>
+      <c r="BA92" s="88"/>
+      <c r="BB92" s="88"/>
+      <c r="BC92" s="88"/>
+      <c r="BD92" s="88"/>
+      <c r="BE92" s="89"/>
+      <c r="BF92" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="BG92" s="84"/>
-      <c r="BH92" s="84"/>
-      <c r="BI92" s="84"/>
-      <c r="BJ92" s="84"/>
-      <c r="BK92" s="84"/>
-      <c r="BL92" s="84"/>
-      <c r="BM92" s="84"/>
-      <c r="BN92" s="84"/>
-      <c r="BO92" s="84"/>
-      <c r="BP92" s="84"/>
-      <c r="BQ92" s="84"/>
-      <c r="BR92" s="84"/>
-      <c r="BS92" s="84"/>
-      <c r="BT92" s="84"/>
-      <c r="BU92" s="84"/>
-      <c r="BV92" s="84"/>
-      <c r="BW92" s="84"/>
-      <c r="BX92" s="84"/>
-      <c r="BY92" s="85"/>
+      <c r="BG92" s="88"/>
+      <c r="BH92" s="88"/>
+      <c r="BI92" s="88"/>
+      <c r="BJ92" s="88"/>
+      <c r="BK92" s="88"/>
+      <c r="BL92" s="88"/>
+      <c r="BM92" s="88"/>
+      <c r="BN92" s="88"/>
+      <c r="BO92" s="88"/>
+      <c r="BP92" s="88"/>
+      <c r="BQ92" s="88"/>
+      <c r="BR92" s="88"/>
+      <c r="BS92" s="88"/>
+      <c r="BT92" s="88"/>
+      <c r="BU92" s="88"/>
+      <c r="BV92" s="88"/>
+      <c r="BW92" s="88"/>
+      <c r="BX92" s="88"/>
+      <c r="BY92" s="89"/>
       <c r="BZ92" s="51" t="s">
         <v>61</v>
       </c>
@@ -19325,51 +19325,51 @@
       <c r="CB92" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="CC92" s="83" t="s">
+      <c r="CC92" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="CD92" s="84"/>
-      <c r="CE92" s="84"/>
-      <c r="CF92" s="84"/>
-      <c r="CG92" s="84"/>
-      <c r="CH92" s="84"/>
-      <c r="CI92" s="85"/>
-      <c r="CJ92" s="83" t="s">
+      <c r="CD92" s="88"/>
+      <c r="CE92" s="88"/>
+      <c r="CF92" s="88"/>
+      <c r="CG92" s="88"/>
+      <c r="CH92" s="88"/>
+      <c r="CI92" s="89"/>
+      <c r="CJ92" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="CK92" s="84"/>
-      <c r="CL92" s="84"/>
-      <c r="CM92" s="84"/>
-      <c r="CN92" s="84"/>
-      <c r="CO92" s="84"/>
-      <c r="CP92" s="85"/>
-      <c r="CQ92" s="83" t="s">
+      <c r="CK92" s="88"/>
+      <c r="CL92" s="88"/>
+      <c r="CM92" s="88"/>
+      <c r="CN92" s="88"/>
+      <c r="CO92" s="88"/>
+      <c r="CP92" s="89"/>
+      <c r="CQ92" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="CR92" s="84"/>
-      <c r="CS92" s="84"/>
-      <c r="CT92" s="84"/>
-      <c r="CU92" s="84"/>
-      <c r="CV92" s="84"/>
-      <c r="CW92" s="85"/>
-      <c r="CX92" s="83" t="s">
+      <c r="CR92" s="88"/>
+      <c r="CS92" s="88"/>
+      <c r="CT92" s="88"/>
+      <c r="CU92" s="88"/>
+      <c r="CV92" s="88"/>
+      <c r="CW92" s="89"/>
+      <c r="CX92" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="CY92" s="84"/>
-      <c r="CZ92" s="84"/>
-      <c r="DA92" s="84"/>
-      <c r="DB92" s="84"/>
-      <c r="DC92" s="84"/>
-      <c r="DD92" s="84"/>
-      <c r="DE92" s="84"/>
-      <c r="DF92" s="84"/>
-      <c r="DG92" s="84"/>
-      <c r="DH92" s="84"/>
-      <c r="DI92" s="84"/>
-      <c r="DJ92" s="84"/>
-      <c r="DK92" s="84"/>
-      <c r="DL92" s="84"/>
-      <c r="DM92" s="85"/>
+      <c r="CY92" s="88"/>
+      <c r="CZ92" s="88"/>
+      <c r="DA92" s="88"/>
+      <c r="DB92" s="88"/>
+      <c r="DC92" s="88"/>
+      <c r="DD92" s="88"/>
+      <c r="DE92" s="88"/>
+      <c r="DF92" s="88"/>
+      <c r="DG92" s="88"/>
+      <c r="DH92" s="88"/>
+      <c r="DI92" s="88"/>
+      <c r="DJ92" s="88"/>
+      <c r="DK92" s="88"/>
+      <c r="DL92" s="88"/>
+      <c r="DM92" s="89"/>
       <c r="DN92" s="52" t="s">
         <v>185</v>
       </c>
@@ -20644,18 +20644,18 @@
       <c r="I100" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J100" s="83" t="s">
+      <c r="J100" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="K100" s="84"/>
-      <c r="L100" s="84"/>
-      <c r="M100" s="84"/>
-      <c r="N100" s="84"/>
-      <c r="O100" s="84"/>
-      <c r="P100" s="84"/>
-      <c r="Q100" s="84"/>
-      <c r="R100" s="84"/>
-      <c r="S100" s="85"/>
+      <c r="K100" s="88"/>
+      <c r="L100" s="88"/>
+      <c r="M100" s="88"/>
+      <c r="N100" s="88"/>
+      <c r="O100" s="88"/>
+      <c r="P100" s="88"/>
+      <c r="Q100" s="88"/>
+      <c r="R100" s="88"/>
+      <c r="S100" s="89"/>
       <c r="T100" s="49" t="s">
         <v>6</v>
       </c>
@@ -20800,15 +20800,15 @@
     </row>
     <row r="105" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A105" s="74"/>
-      <c r="B105" s="82" t="s">
+      <c r="B105" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82" t="s">
+      <c r="C105" s="79"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F105" s="82"/>
+      <c r="F105" s="79"/>
       <c r="G105" s="57" t="s">
         <v>4</v>
       </c>
@@ -21123,15 +21123,15 @@
       <c r="K110" s="56"/>
     </row>
     <row r="111" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="B111" s="82" t="s">
+      <c r="B111" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="82"/>
-      <c r="D111" s="82"/>
-      <c r="E111" s="82" t="s">
+      <c r="C111" s="79"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F111" s="82"/>
+      <c r="F111" s="79"/>
       <c r="G111" s="57" t="s">
         <v>4</v>
       </c>
@@ -21141,95 +21141,95 @@
       <c r="I111" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J111" s="86" t="s">
+      <c r="J111" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="K111" s="89"/>
-      <c r="L111" s="87"/>
-      <c r="M111" s="86" t="s">
+      <c r="K111" s="81"/>
+      <c r="L111" s="82"/>
+      <c r="M111" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="N111" s="87"/>
+      <c r="N111" s="82"/>
       <c r="O111" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P111" s="82" t="s">
+      <c r="P111" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="Q111" s="82"/>
-      <c r="R111" s="82"/>
-      <c r="S111" s="82"/>
-      <c r="T111" s="82"/>
-      <c r="U111" s="82"/>
-      <c r="V111" s="82"/>
-      <c r="W111" s="82"/>
-      <c r="X111" s="82" t="s">
+      <c r="Q111" s="79"/>
+      <c r="R111" s="79"/>
+      <c r="S111" s="79"/>
+      <c r="T111" s="79"/>
+      <c r="U111" s="79"/>
+      <c r="V111" s="79"/>
+      <c r="W111" s="79"/>
+      <c r="X111" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="Y111" s="82"/>
-      <c r="Z111" s="82"/>
-      <c r="AA111" s="82"/>
-      <c r="AB111" s="82"/>
-      <c r="AC111" s="82"/>
-      <c r="AD111" s="82"/>
-      <c r="AE111" s="82"/>
-      <c r="AF111" s="82"/>
-      <c r="AG111" s="82"/>
-      <c r="AH111" s="82" t="s">
+      <c r="Y111" s="79"/>
+      <c r="Z111" s="79"/>
+      <c r="AA111" s="79"/>
+      <c r="AB111" s="79"/>
+      <c r="AC111" s="79"/>
+      <c r="AD111" s="79"/>
+      <c r="AE111" s="79"/>
+      <c r="AF111" s="79"/>
+      <c r="AG111" s="79"/>
+      <c r="AH111" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="AI111" s="82"/>
-      <c r="AJ111" s="82"/>
-      <c r="AK111" s="82"/>
-      <c r="AL111" s="82"/>
-      <c r="AM111" s="82" t="s">
+      <c r="AI111" s="79"/>
+      <c r="AJ111" s="79"/>
+      <c r="AK111" s="79"/>
+      <c r="AL111" s="79"/>
+      <c r="AM111" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="AN111" s="82"/>
-      <c r="AO111" s="82"/>
-      <c r="AP111" s="82"/>
-      <c r="AQ111" s="82"/>
-      <c r="AR111" s="82"/>
-      <c r="AS111" s="82"/>
-      <c r="AT111" s="82"/>
-      <c r="AU111" s="82" t="s">
+      <c r="AN111" s="79"/>
+      <c r="AO111" s="79"/>
+      <c r="AP111" s="79"/>
+      <c r="AQ111" s="79"/>
+      <c r="AR111" s="79"/>
+      <c r="AS111" s="79"/>
+      <c r="AT111" s="79"/>
+      <c r="AU111" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="AV111" s="82"/>
-      <c r="AW111" s="82"/>
-      <c r="AX111" s="82"/>
-      <c r="AY111" s="82"/>
-      <c r="AZ111" s="82"/>
-      <c r="BA111" s="82"/>
-      <c r="BB111" s="82"/>
-      <c r="BC111" s="82" t="s">
+      <c r="AV111" s="79"/>
+      <c r="AW111" s="79"/>
+      <c r="AX111" s="79"/>
+      <c r="AY111" s="79"/>
+      <c r="AZ111" s="79"/>
+      <c r="BA111" s="79"/>
+      <c r="BB111" s="79"/>
+      <c r="BC111" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="BD111" s="82"/>
-      <c r="BE111" s="82"/>
-      <c r="BF111" s="82"/>
-      <c r="BG111" s="82"/>
-      <c r="BH111" s="82"/>
-      <c r="BI111" s="82"/>
-      <c r="BJ111" s="82"/>
-      <c r="BK111" s="82"/>
-      <c r="BL111" s="82"/>
-      <c r="BM111" s="82"/>
-      <c r="BN111" s="82"/>
-      <c r="BO111" s="82" t="s">
+      <c r="BD111" s="79"/>
+      <c r="BE111" s="79"/>
+      <c r="BF111" s="79"/>
+      <c r="BG111" s="79"/>
+      <c r="BH111" s="79"/>
+      <c r="BI111" s="79"/>
+      <c r="BJ111" s="79"/>
+      <c r="BK111" s="79"/>
+      <c r="BL111" s="79"/>
+      <c r="BM111" s="79"/>
+      <c r="BN111" s="79"/>
+      <c r="BO111" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="BP111" s="82"/>
-      <c r="BQ111" s="82"/>
-      <c r="BR111" s="82"/>
-      <c r="BS111" s="82"/>
-      <c r="BT111" s="82"/>
-      <c r="BU111" s="82"/>
-      <c r="BV111" s="82"/>
-      <c r="BW111" s="82"/>
-      <c r="BX111" s="82"/>
-      <c r="BY111" s="82"/>
-      <c r="BZ111" s="82"/>
+      <c r="BP111" s="79"/>
+      <c r="BQ111" s="79"/>
+      <c r="BR111" s="79"/>
+      <c r="BS111" s="79"/>
+      <c r="BT111" s="79"/>
+      <c r="BU111" s="79"/>
+      <c r="BV111" s="79"/>
+      <c r="BW111" s="79"/>
+      <c r="BX111" s="79"/>
+      <c r="BY111" s="79"/>
+      <c r="BZ111" s="79"/>
       <c r="CA111" s="57" t="s">
         <v>6</v>
       </c>
@@ -22073,15 +22073,15 @@
     </row>
     <row r="117" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A117" s="74"/>
-      <c r="B117" s="82" t="s">
+      <c r="B117" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C117" s="82"/>
-      <c r="D117" s="82"/>
-      <c r="E117" s="82" t="s">
+      <c r="C117" s="79"/>
+      <c r="D117" s="79"/>
+      <c r="E117" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F117" s="82"/>
+      <c r="F117" s="79"/>
       <c r="G117" s="57" t="s">
         <v>4</v>
       </c>
@@ -22270,15 +22270,15 @@
       <c r="K122" s="56"/>
     </row>
     <row r="123" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="B123" s="82" t="s">
+      <c r="B123" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="82"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="82" t="s">
+      <c r="C123" s="79"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F123" s="82"/>
+      <c r="F123" s="79"/>
       <c r="G123" s="57" t="s">
         <v>4</v>
       </c>
@@ -22288,45 +22288,45 @@
       <c r="I123" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J123" s="86" t="s">
+      <c r="J123" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="K123" s="89"/>
-      <c r="L123" s="87"/>
-      <c r="M123" s="86" t="s">
+      <c r="K123" s="81"/>
+      <c r="L123" s="82"/>
+      <c r="M123" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="N123" s="87"/>
+      <c r="N123" s="82"/>
       <c r="O123" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P123" s="82" t="s">
+      <c r="P123" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="Q123" s="82"/>
-      <c r="R123" s="82"/>
-      <c r="S123" s="82"/>
-      <c r="T123" s="82"/>
-      <c r="U123" s="82" t="s">
+      <c r="Q123" s="79"/>
+      <c r="R123" s="79"/>
+      <c r="S123" s="79"/>
+      <c r="T123" s="79"/>
+      <c r="U123" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="V123" s="82"/>
-      <c r="W123" s="82"/>
-      <c r="X123" s="82"/>
-      <c r="Y123" s="82"/>
-      <c r="Z123" s="82"/>
-      <c r="AA123" s="82"/>
-      <c r="AB123" s="82"/>
-      <c r="AC123" s="82" t="s">
+      <c r="V123" s="79"/>
+      <c r="W123" s="79"/>
+      <c r="X123" s="79"/>
+      <c r="Y123" s="79"/>
+      <c r="Z123" s="79"/>
+      <c r="AA123" s="79"/>
+      <c r="AB123" s="79"/>
+      <c r="AC123" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="AD123" s="82"/>
-      <c r="AE123" s="82"/>
-      <c r="AF123" s="82"/>
-      <c r="AG123" s="82"/>
-      <c r="AH123" s="82"/>
-      <c r="AI123" s="82"/>
-      <c r="AJ123" s="82"/>
+      <c r="AD123" s="79"/>
+      <c r="AE123" s="79"/>
+      <c r="AF123" s="79"/>
+      <c r="AG123" s="79"/>
+      <c r="AH123" s="79"/>
+      <c r="AI123" s="79"/>
+      <c r="AJ123" s="79"/>
       <c r="AK123" s="57" t="s">
         <v>6</v>
       </c>
@@ -23801,15 +23801,15 @@
       </c>
     </row>
     <row r="137" spans="2:339" s="22" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="76" t="s">
+      <c r="B137" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C137" s="77"/>
-      <c r="D137" s="78"/>
-      <c r="E137" s="76" t="s">
+      <c r="C137" s="84"/>
+      <c r="D137" s="85"/>
+      <c r="E137" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F137" s="78"/>
+      <c r="F137" s="85"/>
       <c r="G137" s="20" t="s">
         <v>5</v>
       </c>
@@ -23835,352 +23835,352 @@
       <c r="Q137" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="R137" s="76" t="s">
+      <c r="R137" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="S137" s="77"/>
-      <c r="T137" s="77"/>
-      <c r="U137" s="77"/>
-      <c r="V137" s="77"/>
-      <c r="W137" s="77"/>
-      <c r="X137" s="77"/>
-      <c r="Y137" s="77"/>
-      <c r="Z137" s="77"/>
-      <c r="AA137" s="77"/>
-      <c r="AB137" s="77"/>
-      <c r="AC137" s="77"/>
-      <c r="AD137" s="77"/>
-      <c r="AE137" s="77"/>
-      <c r="AF137" s="77"/>
-      <c r="AG137" s="77"/>
-      <c r="AH137" s="77"/>
-      <c r="AI137" s="77"/>
-      <c r="AJ137" s="77"/>
-      <c r="AK137" s="77"/>
-      <c r="AL137" s="77"/>
-      <c r="AM137" s="77"/>
-      <c r="AN137" s="77"/>
-      <c r="AO137" s="77"/>
-      <c r="AP137" s="77"/>
-      <c r="AQ137" s="77"/>
-      <c r="AR137" s="77"/>
-      <c r="AS137" s="77"/>
-      <c r="AT137" s="77"/>
-      <c r="AU137" s="78"/>
-      <c r="AV137" s="76" t="s">
+      <c r="S137" s="84"/>
+      <c r="T137" s="84"/>
+      <c r="U137" s="84"/>
+      <c r="V137" s="84"/>
+      <c r="W137" s="84"/>
+      <c r="X137" s="84"/>
+      <c r="Y137" s="84"/>
+      <c r="Z137" s="84"/>
+      <c r="AA137" s="84"/>
+      <c r="AB137" s="84"/>
+      <c r="AC137" s="84"/>
+      <c r="AD137" s="84"/>
+      <c r="AE137" s="84"/>
+      <c r="AF137" s="84"/>
+      <c r="AG137" s="84"/>
+      <c r="AH137" s="84"/>
+      <c r="AI137" s="84"/>
+      <c r="AJ137" s="84"/>
+      <c r="AK137" s="84"/>
+      <c r="AL137" s="84"/>
+      <c r="AM137" s="84"/>
+      <c r="AN137" s="84"/>
+      <c r="AO137" s="84"/>
+      <c r="AP137" s="84"/>
+      <c r="AQ137" s="84"/>
+      <c r="AR137" s="84"/>
+      <c r="AS137" s="84"/>
+      <c r="AT137" s="84"/>
+      <c r="AU137" s="85"/>
+      <c r="AV137" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="AW137" s="77"/>
-      <c r="AX137" s="77"/>
-      <c r="AY137" s="77"/>
-      <c r="AZ137" s="77"/>
-      <c r="BA137" s="77"/>
-      <c r="BB137" s="77"/>
-      <c r="BC137" s="77"/>
-      <c r="BD137" s="77"/>
-      <c r="BE137" s="77"/>
-      <c r="BF137" s="77"/>
-      <c r="BG137" s="77"/>
-      <c r="BH137" s="77"/>
-      <c r="BI137" s="77"/>
-      <c r="BJ137" s="77"/>
-      <c r="BK137" s="77"/>
-      <c r="BL137" s="77"/>
-      <c r="BM137" s="77"/>
-      <c r="BN137" s="77"/>
-      <c r="BO137" s="77"/>
-      <c r="BP137" s="77"/>
-      <c r="BQ137" s="77"/>
-      <c r="BR137" s="77"/>
-      <c r="BS137" s="77"/>
-      <c r="BT137" s="77"/>
-      <c r="BU137" s="77"/>
-      <c r="BV137" s="77"/>
-      <c r="BW137" s="77"/>
-      <c r="BX137" s="77"/>
-      <c r="BY137" s="78"/>
-      <c r="BZ137" s="76" t="s">
+      <c r="AW137" s="84"/>
+      <c r="AX137" s="84"/>
+      <c r="AY137" s="84"/>
+      <c r="AZ137" s="84"/>
+      <c r="BA137" s="84"/>
+      <c r="BB137" s="84"/>
+      <c r="BC137" s="84"/>
+      <c r="BD137" s="84"/>
+      <c r="BE137" s="84"/>
+      <c r="BF137" s="84"/>
+      <c r="BG137" s="84"/>
+      <c r="BH137" s="84"/>
+      <c r="BI137" s="84"/>
+      <c r="BJ137" s="84"/>
+      <c r="BK137" s="84"/>
+      <c r="BL137" s="84"/>
+      <c r="BM137" s="84"/>
+      <c r="BN137" s="84"/>
+      <c r="BO137" s="84"/>
+      <c r="BP137" s="84"/>
+      <c r="BQ137" s="84"/>
+      <c r="BR137" s="84"/>
+      <c r="BS137" s="84"/>
+      <c r="BT137" s="84"/>
+      <c r="BU137" s="84"/>
+      <c r="BV137" s="84"/>
+      <c r="BW137" s="84"/>
+      <c r="BX137" s="84"/>
+      <c r="BY137" s="85"/>
+      <c r="BZ137" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="CA137" s="77"/>
-      <c r="CB137" s="77"/>
-      <c r="CC137" s="77"/>
-      <c r="CD137" s="77"/>
-      <c r="CE137" s="77"/>
-      <c r="CF137" s="77"/>
-      <c r="CG137" s="77"/>
-      <c r="CH137" s="77"/>
-      <c r="CI137" s="77"/>
-      <c r="CJ137" s="77"/>
-      <c r="CK137" s="77"/>
-      <c r="CL137" s="77"/>
-      <c r="CM137" s="77"/>
-      <c r="CN137" s="77"/>
-      <c r="CO137" s="77"/>
-      <c r="CP137" s="77"/>
-      <c r="CQ137" s="77"/>
-      <c r="CR137" s="77"/>
-      <c r="CS137" s="77"/>
-      <c r="CT137" s="77"/>
-      <c r="CU137" s="77"/>
-      <c r="CV137" s="77"/>
-      <c r="CW137" s="77"/>
-      <c r="CX137" s="77"/>
-      <c r="CY137" s="77"/>
-      <c r="CZ137" s="77"/>
-      <c r="DA137" s="77"/>
-      <c r="DB137" s="77"/>
-      <c r="DC137" s="78"/>
-      <c r="DD137" s="76" t="s">
+      <c r="CA137" s="84"/>
+      <c r="CB137" s="84"/>
+      <c r="CC137" s="84"/>
+      <c r="CD137" s="84"/>
+      <c r="CE137" s="84"/>
+      <c r="CF137" s="84"/>
+      <c r="CG137" s="84"/>
+      <c r="CH137" s="84"/>
+      <c r="CI137" s="84"/>
+      <c r="CJ137" s="84"/>
+      <c r="CK137" s="84"/>
+      <c r="CL137" s="84"/>
+      <c r="CM137" s="84"/>
+      <c r="CN137" s="84"/>
+      <c r="CO137" s="84"/>
+      <c r="CP137" s="84"/>
+      <c r="CQ137" s="84"/>
+      <c r="CR137" s="84"/>
+      <c r="CS137" s="84"/>
+      <c r="CT137" s="84"/>
+      <c r="CU137" s="84"/>
+      <c r="CV137" s="84"/>
+      <c r="CW137" s="84"/>
+      <c r="CX137" s="84"/>
+      <c r="CY137" s="84"/>
+      <c r="CZ137" s="84"/>
+      <c r="DA137" s="84"/>
+      <c r="DB137" s="84"/>
+      <c r="DC137" s="85"/>
+      <c r="DD137" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="DE137" s="77"/>
-      <c r="DF137" s="77"/>
-      <c r="DG137" s="77"/>
-      <c r="DH137" s="77"/>
-      <c r="DI137" s="77"/>
-      <c r="DJ137" s="77"/>
-      <c r="DK137" s="77"/>
-      <c r="DL137" s="77"/>
-      <c r="DM137" s="77"/>
-      <c r="DN137" s="77"/>
-      <c r="DO137" s="77"/>
-      <c r="DP137" s="77"/>
-      <c r="DQ137" s="77"/>
-      <c r="DR137" s="77"/>
-      <c r="DS137" s="77"/>
-      <c r="DT137" s="77"/>
-      <c r="DU137" s="77"/>
-      <c r="DV137" s="77"/>
-      <c r="DW137" s="77"/>
-      <c r="DX137" s="77"/>
-      <c r="DY137" s="77"/>
-      <c r="DZ137" s="77"/>
-      <c r="EA137" s="77"/>
-      <c r="EB137" s="77"/>
-      <c r="EC137" s="77"/>
-      <c r="ED137" s="77"/>
-      <c r="EE137" s="77"/>
-      <c r="EF137" s="77"/>
-      <c r="EG137" s="78"/>
-      <c r="EH137" s="76" t="s">
+      <c r="DE137" s="84"/>
+      <c r="DF137" s="84"/>
+      <c r="DG137" s="84"/>
+      <c r="DH137" s="84"/>
+      <c r="DI137" s="84"/>
+      <c r="DJ137" s="84"/>
+      <c r="DK137" s="84"/>
+      <c r="DL137" s="84"/>
+      <c r="DM137" s="84"/>
+      <c r="DN137" s="84"/>
+      <c r="DO137" s="84"/>
+      <c r="DP137" s="84"/>
+      <c r="DQ137" s="84"/>
+      <c r="DR137" s="84"/>
+      <c r="DS137" s="84"/>
+      <c r="DT137" s="84"/>
+      <c r="DU137" s="84"/>
+      <c r="DV137" s="84"/>
+      <c r="DW137" s="84"/>
+      <c r="DX137" s="84"/>
+      <c r="DY137" s="84"/>
+      <c r="DZ137" s="84"/>
+      <c r="EA137" s="84"/>
+      <c r="EB137" s="84"/>
+      <c r="EC137" s="84"/>
+      <c r="ED137" s="84"/>
+      <c r="EE137" s="84"/>
+      <c r="EF137" s="84"/>
+      <c r="EG137" s="85"/>
+      <c r="EH137" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="EI137" s="77"/>
-      <c r="EJ137" s="77"/>
-      <c r="EK137" s="77"/>
-      <c r="EL137" s="77"/>
-      <c r="EM137" s="77"/>
-      <c r="EN137" s="77"/>
-      <c r="EO137" s="77"/>
-      <c r="EP137" s="77"/>
-      <c r="EQ137" s="77"/>
-      <c r="ER137" s="77"/>
-      <c r="ES137" s="77"/>
-      <c r="ET137" s="77"/>
-      <c r="EU137" s="77"/>
-      <c r="EV137" s="77"/>
-      <c r="EW137" s="77"/>
-      <c r="EX137" s="77"/>
-      <c r="EY137" s="77"/>
-      <c r="EZ137" s="77"/>
-      <c r="FA137" s="77"/>
-      <c r="FB137" s="77"/>
-      <c r="FC137" s="77"/>
-      <c r="FD137" s="77"/>
-      <c r="FE137" s="77"/>
-      <c r="FF137" s="77"/>
-      <c r="FG137" s="77"/>
-      <c r="FH137" s="77"/>
-      <c r="FI137" s="77"/>
-      <c r="FJ137" s="77"/>
-      <c r="FK137" s="78"/>
-      <c r="FL137" s="76" t="s">
+      <c r="EI137" s="84"/>
+      <c r="EJ137" s="84"/>
+      <c r="EK137" s="84"/>
+      <c r="EL137" s="84"/>
+      <c r="EM137" s="84"/>
+      <c r="EN137" s="84"/>
+      <c r="EO137" s="84"/>
+      <c r="EP137" s="84"/>
+      <c r="EQ137" s="84"/>
+      <c r="ER137" s="84"/>
+      <c r="ES137" s="84"/>
+      <c r="ET137" s="84"/>
+      <c r="EU137" s="84"/>
+      <c r="EV137" s="84"/>
+      <c r="EW137" s="84"/>
+      <c r="EX137" s="84"/>
+      <c r="EY137" s="84"/>
+      <c r="EZ137" s="84"/>
+      <c r="FA137" s="84"/>
+      <c r="FB137" s="84"/>
+      <c r="FC137" s="84"/>
+      <c r="FD137" s="84"/>
+      <c r="FE137" s="84"/>
+      <c r="FF137" s="84"/>
+      <c r="FG137" s="84"/>
+      <c r="FH137" s="84"/>
+      <c r="FI137" s="84"/>
+      <c r="FJ137" s="84"/>
+      <c r="FK137" s="85"/>
+      <c r="FL137" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="FM137" s="77"/>
-      <c r="FN137" s="77"/>
-      <c r="FO137" s="77"/>
-      <c r="FP137" s="77"/>
-      <c r="FQ137" s="77"/>
-      <c r="FR137" s="77"/>
-      <c r="FS137" s="77"/>
-      <c r="FT137" s="77"/>
-      <c r="FU137" s="77"/>
-      <c r="FV137" s="77"/>
-      <c r="FW137" s="77"/>
-      <c r="FX137" s="77"/>
-      <c r="FY137" s="77"/>
-      <c r="FZ137" s="77"/>
-      <c r="GA137" s="77"/>
-      <c r="GB137" s="77"/>
-      <c r="GC137" s="77"/>
-      <c r="GD137" s="77"/>
-      <c r="GE137" s="77"/>
-      <c r="GF137" s="77"/>
-      <c r="GG137" s="77"/>
-      <c r="GH137" s="77"/>
-      <c r="GI137" s="77"/>
-      <c r="GJ137" s="77"/>
-      <c r="GK137" s="77"/>
-      <c r="GL137" s="77"/>
-      <c r="GM137" s="77"/>
-      <c r="GN137" s="77"/>
-      <c r="GO137" s="77"/>
-      <c r="GP137" s="78"/>
-      <c r="GQ137" s="76" t="s">
+      <c r="FM137" s="84"/>
+      <c r="FN137" s="84"/>
+      <c r="FO137" s="84"/>
+      <c r="FP137" s="84"/>
+      <c r="FQ137" s="84"/>
+      <c r="FR137" s="84"/>
+      <c r="FS137" s="84"/>
+      <c r="FT137" s="84"/>
+      <c r="FU137" s="84"/>
+      <c r="FV137" s="84"/>
+      <c r="FW137" s="84"/>
+      <c r="FX137" s="84"/>
+      <c r="FY137" s="84"/>
+      <c r="FZ137" s="84"/>
+      <c r="GA137" s="84"/>
+      <c r="GB137" s="84"/>
+      <c r="GC137" s="84"/>
+      <c r="GD137" s="84"/>
+      <c r="GE137" s="84"/>
+      <c r="GF137" s="84"/>
+      <c r="GG137" s="84"/>
+      <c r="GH137" s="84"/>
+      <c r="GI137" s="84"/>
+      <c r="GJ137" s="84"/>
+      <c r="GK137" s="84"/>
+      <c r="GL137" s="84"/>
+      <c r="GM137" s="84"/>
+      <c r="GN137" s="84"/>
+      <c r="GO137" s="84"/>
+      <c r="GP137" s="85"/>
+      <c r="GQ137" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="GR137" s="77"/>
-      <c r="GS137" s="77"/>
-      <c r="GT137" s="77"/>
-      <c r="GU137" s="77"/>
-      <c r="GV137" s="77"/>
-      <c r="GW137" s="77"/>
-      <c r="GX137" s="77"/>
-      <c r="GY137" s="77"/>
-      <c r="GZ137" s="77"/>
-      <c r="HA137" s="77"/>
-      <c r="HB137" s="77"/>
-      <c r="HC137" s="77"/>
-      <c r="HD137" s="77"/>
-      <c r="HE137" s="77"/>
-      <c r="HF137" s="77"/>
-      <c r="HG137" s="77"/>
-      <c r="HH137" s="77"/>
-      <c r="HI137" s="77"/>
-      <c r="HJ137" s="77"/>
-      <c r="HK137" s="77"/>
-      <c r="HL137" s="77"/>
-      <c r="HM137" s="77"/>
-      <c r="HN137" s="77"/>
-      <c r="HO137" s="77"/>
-      <c r="HP137" s="77"/>
-      <c r="HQ137" s="77"/>
-      <c r="HR137" s="77"/>
-      <c r="HS137" s="77"/>
-      <c r="HT137" s="78"/>
-      <c r="HU137" s="76" t="s">
+      <c r="GR137" s="84"/>
+      <c r="GS137" s="84"/>
+      <c r="GT137" s="84"/>
+      <c r="GU137" s="84"/>
+      <c r="GV137" s="84"/>
+      <c r="GW137" s="84"/>
+      <c r="GX137" s="84"/>
+      <c r="GY137" s="84"/>
+      <c r="GZ137" s="84"/>
+      <c r="HA137" s="84"/>
+      <c r="HB137" s="84"/>
+      <c r="HC137" s="84"/>
+      <c r="HD137" s="84"/>
+      <c r="HE137" s="84"/>
+      <c r="HF137" s="84"/>
+      <c r="HG137" s="84"/>
+      <c r="HH137" s="84"/>
+      <c r="HI137" s="84"/>
+      <c r="HJ137" s="84"/>
+      <c r="HK137" s="84"/>
+      <c r="HL137" s="84"/>
+      <c r="HM137" s="84"/>
+      <c r="HN137" s="84"/>
+      <c r="HO137" s="84"/>
+      <c r="HP137" s="84"/>
+      <c r="HQ137" s="84"/>
+      <c r="HR137" s="84"/>
+      <c r="HS137" s="84"/>
+      <c r="HT137" s="85"/>
+      <c r="HU137" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="HV137" s="77"/>
-      <c r="HW137" s="77"/>
-      <c r="HX137" s="77"/>
-      <c r="HY137" s="77"/>
-      <c r="HZ137" s="77"/>
-      <c r="IA137" s="77"/>
-      <c r="IB137" s="77"/>
-      <c r="IC137" s="77"/>
-      <c r="ID137" s="77"/>
-      <c r="IE137" s="77"/>
-      <c r="IF137" s="77"/>
-      <c r="IG137" s="77"/>
-      <c r="IH137" s="77"/>
-      <c r="II137" s="77"/>
-      <c r="IJ137" s="77"/>
-      <c r="IK137" s="77"/>
-      <c r="IL137" s="77"/>
-      <c r="IM137" s="77"/>
-      <c r="IN137" s="77"/>
-      <c r="IO137" s="77"/>
-      <c r="IP137" s="77"/>
-      <c r="IQ137" s="77"/>
-      <c r="IR137" s="77"/>
-      <c r="IS137" s="77"/>
-      <c r="IT137" s="77"/>
-      <c r="IU137" s="77"/>
-      <c r="IV137" s="77"/>
-      <c r="IW137" s="77"/>
-      <c r="IX137" s="78"/>
-      <c r="IY137" s="76" t="s">
+      <c r="HV137" s="84"/>
+      <c r="HW137" s="84"/>
+      <c r="HX137" s="84"/>
+      <c r="HY137" s="84"/>
+      <c r="HZ137" s="84"/>
+      <c r="IA137" s="84"/>
+      <c r="IB137" s="84"/>
+      <c r="IC137" s="84"/>
+      <c r="ID137" s="84"/>
+      <c r="IE137" s="84"/>
+      <c r="IF137" s="84"/>
+      <c r="IG137" s="84"/>
+      <c r="IH137" s="84"/>
+      <c r="II137" s="84"/>
+      <c r="IJ137" s="84"/>
+      <c r="IK137" s="84"/>
+      <c r="IL137" s="84"/>
+      <c r="IM137" s="84"/>
+      <c r="IN137" s="84"/>
+      <c r="IO137" s="84"/>
+      <c r="IP137" s="84"/>
+      <c r="IQ137" s="84"/>
+      <c r="IR137" s="84"/>
+      <c r="IS137" s="84"/>
+      <c r="IT137" s="84"/>
+      <c r="IU137" s="84"/>
+      <c r="IV137" s="84"/>
+      <c r="IW137" s="84"/>
+      <c r="IX137" s="85"/>
+      <c r="IY137" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="IZ137" s="77"/>
-      <c r="JA137" s="77"/>
-      <c r="JB137" s="77"/>
-      <c r="JC137" s="77"/>
-      <c r="JD137" s="77"/>
-      <c r="JE137" s="77"/>
-      <c r="JF137" s="77"/>
-      <c r="JG137" s="77"/>
-      <c r="JH137" s="77"/>
-      <c r="JI137" s="77"/>
-      <c r="JJ137" s="77"/>
-      <c r="JK137" s="77"/>
-      <c r="JL137" s="77"/>
-      <c r="JM137" s="78"/>
-      <c r="JN137" s="76" t="s">
+      <c r="IZ137" s="84"/>
+      <c r="JA137" s="84"/>
+      <c r="JB137" s="84"/>
+      <c r="JC137" s="84"/>
+      <c r="JD137" s="84"/>
+      <c r="JE137" s="84"/>
+      <c r="JF137" s="84"/>
+      <c r="JG137" s="84"/>
+      <c r="JH137" s="84"/>
+      <c r="JI137" s="84"/>
+      <c r="JJ137" s="84"/>
+      <c r="JK137" s="84"/>
+      <c r="JL137" s="84"/>
+      <c r="JM137" s="85"/>
+      <c r="JN137" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="JO137" s="77"/>
-      <c r="JP137" s="77"/>
-      <c r="JQ137" s="77"/>
-      <c r="JR137" s="77"/>
-      <c r="JS137" s="77"/>
-      <c r="JT137" s="77"/>
-      <c r="JU137" s="77"/>
-      <c r="JV137" s="77"/>
-      <c r="JW137" s="77"/>
-      <c r="JX137" s="77"/>
-      <c r="JY137" s="77"/>
-      <c r="JZ137" s="77"/>
-      <c r="KA137" s="77"/>
-      <c r="KB137" s="77"/>
-      <c r="KC137" s="78"/>
-      <c r="KD137" s="76" t="s">
+      <c r="JO137" s="84"/>
+      <c r="JP137" s="84"/>
+      <c r="JQ137" s="84"/>
+      <c r="JR137" s="84"/>
+      <c r="JS137" s="84"/>
+      <c r="JT137" s="84"/>
+      <c r="JU137" s="84"/>
+      <c r="JV137" s="84"/>
+      <c r="JW137" s="84"/>
+      <c r="JX137" s="84"/>
+      <c r="JY137" s="84"/>
+      <c r="JZ137" s="84"/>
+      <c r="KA137" s="84"/>
+      <c r="KB137" s="84"/>
+      <c r="KC137" s="85"/>
+      <c r="KD137" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="KE137" s="77"/>
-      <c r="KF137" s="77"/>
-      <c r="KG137" s="77"/>
-      <c r="KH137" s="77"/>
-      <c r="KI137" s="77"/>
-      <c r="KJ137" s="77"/>
-      <c r="KK137" s="77"/>
-      <c r="KL137" s="77"/>
-      <c r="KM137" s="77"/>
-      <c r="KN137" s="77"/>
-      <c r="KO137" s="77"/>
-      <c r="KP137" s="77"/>
-      <c r="KQ137" s="77"/>
-      <c r="KR137" s="77"/>
-      <c r="KS137" s="78"/>
-      <c r="KT137" s="76" t="s">
+      <c r="KE137" s="84"/>
+      <c r="KF137" s="84"/>
+      <c r="KG137" s="84"/>
+      <c r="KH137" s="84"/>
+      <c r="KI137" s="84"/>
+      <c r="KJ137" s="84"/>
+      <c r="KK137" s="84"/>
+      <c r="KL137" s="84"/>
+      <c r="KM137" s="84"/>
+      <c r="KN137" s="84"/>
+      <c r="KO137" s="84"/>
+      <c r="KP137" s="84"/>
+      <c r="KQ137" s="84"/>
+      <c r="KR137" s="84"/>
+      <c r="KS137" s="85"/>
+      <c r="KT137" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="KU137" s="77"/>
-      <c r="KV137" s="77"/>
-      <c r="KW137" s="77"/>
-      <c r="KX137" s="77"/>
-      <c r="KY137" s="77"/>
-      <c r="KZ137" s="77"/>
-      <c r="LA137" s="77"/>
-      <c r="LB137" s="77"/>
-      <c r="LC137" s="77"/>
-      <c r="LD137" s="77"/>
-      <c r="LE137" s="77"/>
-      <c r="LF137" s="77"/>
-      <c r="LG137" s="77"/>
-      <c r="LH137" s="77"/>
-      <c r="LI137" s="78"/>
-      <c r="LJ137" s="76" t="s">
+      <c r="KU137" s="84"/>
+      <c r="KV137" s="84"/>
+      <c r="KW137" s="84"/>
+      <c r="KX137" s="84"/>
+      <c r="KY137" s="84"/>
+      <c r="KZ137" s="84"/>
+      <c r="LA137" s="84"/>
+      <c r="LB137" s="84"/>
+      <c r="LC137" s="84"/>
+      <c r="LD137" s="84"/>
+      <c r="LE137" s="84"/>
+      <c r="LF137" s="84"/>
+      <c r="LG137" s="84"/>
+      <c r="LH137" s="84"/>
+      <c r="LI137" s="85"/>
+      <c r="LJ137" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="LK137" s="77"/>
-      <c r="LL137" s="77"/>
-      <c r="LM137" s="77"/>
-      <c r="LN137" s="77"/>
-      <c r="LO137" s="77"/>
-      <c r="LP137" s="77"/>
-      <c r="LQ137" s="77"/>
-      <c r="LR137" s="77"/>
-      <c r="LS137" s="77"/>
-      <c r="LT137" s="77"/>
-      <c r="LU137" s="77"/>
-      <c r="LV137" s="77"/>
-      <c r="LW137" s="77"/>
-      <c r="LX137" s="77"/>
-      <c r="LY137" s="78"/>
+      <c r="LK137" s="84"/>
+      <c r="LL137" s="84"/>
+      <c r="LM137" s="84"/>
+      <c r="LN137" s="84"/>
+      <c r="LO137" s="84"/>
+      <c r="LP137" s="84"/>
+      <c r="LQ137" s="84"/>
+      <c r="LR137" s="84"/>
+      <c r="LS137" s="84"/>
+      <c r="LT137" s="84"/>
+      <c r="LU137" s="84"/>
+      <c r="LV137" s="84"/>
+      <c r="LW137" s="84"/>
+      <c r="LX137" s="84"/>
+      <c r="LY137" s="85"/>
       <c r="LZ137" s="20" t="s">
         <v>6</v>
       </c>
@@ -27831,15 +27831,15 @@
       </c>
     </row>
     <row r="143" spans="2:339" ht="45" x14ac:dyDescent="0.25">
-      <c r="B143" s="76" t="s">
+      <c r="B143" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C143" s="77"/>
-      <c r="D143" s="78"/>
-      <c r="E143" s="76" t="s">
+      <c r="C143" s="84"/>
+      <c r="D143" s="85"/>
+      <c r="E143" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F143" s="78"/>
+      <c r="F143" s="85"/>
       <c r="G143" s="20" t="s">
         <v>4</v>
       </c>
@@ -28046,15 +28046,15 @@
       </c>
     </row>
     <row r="149" spans="1:334" x14ac:dyDescent="0.25">
-      <c r="B149" s="76" t="s">
+      <c r="B149" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="77"/>
-      <c r="D149" s="78"/>
-      <c r="E149" s="76" t="s">
+      <c r="C149" s="84"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F149" s="78"/>
+      <c r="F149" s="85"/>
       <c r="G149" s="20" t="s">
         <v>4</v>
       </c>
@@ -28273,15 +28273,15 @@
     </row>
     <row r="158" spans="1:334" x14ac:dyDescent="0.25">
       <c r="A158" s="75"/>
-      <c r="B158" s="82" t="s">
+      <c r="B158" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C158" s="82"/>
-      <c r="D158" s="82"/>
-      <c r="E158" s="82" t="s">
+      <c r="C158" s="79"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F158" s="82"/>
+      <c r="F158" s="79"/>
       <c r="G158" s="49" t="s">
         <v>4</v>
       </c>
@@ -28291,34 +28291,34 @@
       <c r="I158" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="J158" s="79" t="s">
+      <c r="J158" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="K158" s="80"/>
-      <c r="L158" s="80"/>
-      <c r="M158" s="80"/>
-      <c r="N158" s="80"/>
-      <c r="O158" s="80"/>
-      <c r="P158" s="80"/>
-      <c r="Q158" s="80"/>
-      <c r="R158" s="80"/>
-      <c r="S158" s="80"/>
-      <c r="T158" s="81"/>
-      <c r="U158" s="79" t="s">
+      <c r="K158" s="77"/>
+      <c r="L158" s="77"/>
+      <c r="M158" s="77"/>
+      <c r="N158" s="77"/>
+      <c r="O158" s="77"/>
+      <c r="P158" s="77"/>
+      <c r="Q158" s="77"/>
+      <c r="R158" s="77"/>
+      <c r="S158" s="77"/>
+      <c r="T158" s="78"/>
+      <c r="U158" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="V158" s="80"/>
-      <c r="W158" s="80"/>
-      <c r="X158" s="80"/>
-      <c r="Y158" s="80"/>
-      <c r="Z158" s="80"/>
-      <c r="AA158" s="80"/>
-      <c r="AB158" s="80"/>
-      <c r="AC158" s="80"/>
-      <c r="AD158" s="80"/>
-      <c r="AE158" s="80"/>
-      <c r="AF158" s="80"/>
-      <c r="AG158" s="81"/>
+      <c r="V158" s="77"/>
+      <c r="W158" s="77"/>
+      <c r="X158" s="77"/>
+      <c r="Y158" s="77"/>
+      <c r="Z158" s="77"/>
+      <c r="AA158" s="77"/>
+      <c r="AB158" s="77"/>
+      <c r="AC158" s="77"/>
+      <c r="AD158" s="77"/>
+      <c r="AE158" s="77"/>
+      <c r="AF158" s="77"/>
+      <c r="AG158" s="78"/>
       <c r="AH158" s="49" t="s">
         <v>6</v>
       </c>
@@ -28662,15 +28662,15 @@
       <c r="K163" s="11"/>
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B164" s="79" t="s">
+      <c r="B164" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="80"/>
-      <c r="D164" s="81"/>
-      <c r="E164" s="79" t="s">
+      <c r="C164" s="77"/>
+      <c r="D164" s="78"/>
+      <c r="E164" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F164" s="81"/>
+      <c r="F164" s="78"/>
       <c r="G164" s="49" t="s">
         <v>4</v>
       </c>
@@ -29072,14 +29072,78 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="U158:AG158"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="KT137:LI137"/>
+    <mergeCell ref="LJ137:LY137"/>
+    <mergeCell ref="J158:T158"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="HU137:IX137"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="IY137:JM137"/>
+    <mergeCell ref="JN137:KC137"/>
+    <mergeCell ref="KD137:KS137"/>
+    <mergeCell ref="GQ137:HT137"/>
+    <mergeCell ref="J100:S100"/>
+    <mergeCell ref="DD137:EG137"/>
+    <mergeCell ref="EH137:FK137"/>
+    <mergeCell ref="FL137:GP137"/>
+    <mergeCell ref="AM111:AT111"/>
+    <mergeCell ref="AU111:BB111"/>
+    <mergeCell ref="BC111:BN111"/>
+    <mergeCell ref="BO111:BZ111"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="P123:T123"/>
+    <mergeCell ref="U123:AB123"/>
+    <mergeCell ref="AC123:AJ123"/>
+    <mergeCell ref="R137:AU137"/>
+    <mergeCell ref="AV137:BY137"/>
+    <mergeCell ref="BZ137:DC137"/>
+    <mergeCell ref="X111:AG111"/>
+    <mergeCell ref="AB92:AK92"/>
+    <mergeCell ref="AL92:BE92"/>
+    <mergeCell ref="BF92:BY92"/>
+    <mergeCell ref="CX92:DM92"/>
+    <mergeCell ref="CC92:CI92"/>
+    <mergeCell ref="CJ92:CP92"/>
+    <mergeCell ref="CQ92:CW92"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="J92:S92"/>
+    <mergeCell ref="T92:AA92"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="L62:W62"/>
+    <mergeCell ref="X62:AI62"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="X49:AE49"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="AD22:AK22"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="P49:W49"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="AH111:AL111"/>
     <mergeCell ref="U41:AB41"/>
     <mergeCell ref="B80:D80"/>
@@ -29096,78 +29160,14 @@
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="L41:S41"/>
     <mergeCell ref="B62:D62"/>
-    <mergeCell ref="AD22:AK22"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="P49:W49"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="S22:AB22"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="X49:AE49"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="L62:W62"/>
-    <mergeCell ref="X62:AI62"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="J92:S92"/>
-    <mergeCell ref="T92:AA92"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="AB92:AK92"/>
-    <mergeCell ref="AL92:BE92"/>
-    <mergeCell ref="BF92:BY92"/>
-    <mergeCell ref="CX92:DM92"/>
-    <mergeCell ref="CC92:CI92"/>
-    <mergeCell ref="CJ92:CP92"/>
-    <mergeCell ref="CQ92:CW92"/>
-    <mergeCell ref="J100:S100"/>
-    <mergeCell ref="DD137:EG137"/>
-    <mergeCell ref="EH137:FK137"/>
-    <mergeCell ref="FL137:GP137"/>
-    <mergeCell ref="AM111:AT111"/>
-    <mergeCell ref="AU111:BB111"/>
-    <mergeCell ref="BC111:BN111"/>
-    <mergeCell ref="BO111:BZ111"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="P123:T123"/>
-    <mergeCell ref="U123:AB123"/>
-    <mergeCell ref="AC123:AJ123"/>
-    <mergeCell ref="R137:AU137"/>
-    <mergeCell ref="AV137:BY137"/>
-    <mergeCell ref="BZ137:DC137"/>
-    <mergeCell ref="X111:AG111"/>
-    <mergeCell ref="KT137:LI137"/>
-    <mergeCell ref="LJ137:LY137"/>
-    <mergeCell ref="J158:T158"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="HU137:IX137"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="IY137:JM137"/>
-    <mergeCell ref="JN137:KC137"/>
-    <mergeCell ref="KD137:KS137"/>
-    <mergeCell ref="GQ137:HT137"/>
+    <mergeCell ref="U158:AG158"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E137:F137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
